--- a/PY19_ERP_TAG_THUONG_MAI/documents/TIMELINE_TONG_HOP_HUONG_DAN_NGHIEP_VU.xlsx
+++ b/PY19_ERP_TAG_THUONG_MAI/documents/TIMELINE_TONG_HOP_HUONG_DAN_NGHIEP_VU.xlsx
@@ -14,7 +14,8 @@
   <sheets>
     <sheet name="DANH_SACH_NGHIEP_VU_SAN_XUAT" sheetId="4" r:id="rId1"/>
     <sheet name="DANH_SACH_NGHIEP_VU_THUONG_MAI" sheetId="6" r:id="rId2"/>
-    <sheet name="HUONG_DAN_NGHIEP_VU" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId3"/>
+    <sheet name="HUONG_DAN_NGHIEP_VU" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DANH_SACH_NGHIEP_VU_SAN_XUAT!$A$2:$E$21</definedName>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="196">
   <si>
     <t>Bán hàng - Không xuất hóa đơn</t>
   </si>
@@ -1276,6 +1277,69 @@
   <si>
     <t>BÁO CÁO TIẾN ĐỘ THIẾT KẾ PHẦN MỀM - CHI TIẾT
 NHÓM SẢN XUẤT</t>
+  </si>
+  <si>
+    <t>SL nhu cầu</t>
+  </si>
+  <si>
+    <t>SL giữ chỗ</t>
+  </si>
+  <si>
+    <t>SL yêu cầu đặt hàng</t>
+  </si>
+  <si>
+    <t>Ví dụ 01</t>
+  </si>
+  <si>
+    <t>SL khả dụng user thấy</t>
+  </si>
+  <si>
+    <t>SL khả dụng thật</t>
+  </si>
+  <si>
+    <t>SL nhập kho</t>
+  </si>
+  <si>
+    <t>SL xuất kho</t>
+  </si>
+  <si>
+    <t>SL tồn kho đầu kỳ</t>
+  </si>
+  <si>
+    <t>SL tồn kho cuối kỳ</t>
+  </si>
+  <si>
+    <t>SL quyết toán</t>
+  </si>
+  <si>
+    <t>SL nhu cầu chưa quyết toán</t>
+  </si>
+  <si>
+    <t>Số phiếu yêu cầu</t>
+  </si>
+  <si>
+    <t>Quyết toán cho phiếu nào</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>P6</t>
+  </si>
+  <si>
+    <t>P7</t>
   </si>
 </sst>
 </file>
@@ -1437,7 +1501,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1491,6 +1555,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Accent5" xfId="1" builtinId="45"/>
@@ -4237,10 +4304,880 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:N22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="N3" s="19" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="20">
+        <v>10</v>
+      </c>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="21">
+        <f>$A$4+SUM($B$4:B4)-SUM($C$4:C4)</f>
+        <v>10</v>
+      </c>
+      <c r="F4" s="21" t="str">
+        <f>IF(G4="","","P"&amp;COUNTA($G$4:G4))</f>
+        <v>P1</v>
+      </c>
+      <c r="G4" s="20">
+        <v>30</v>
+      </c>
+      <c r="H4" s="21">
+        <f>+C4</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="21">
+        <f>SUM($G$4:G4)-SUM($H$4:H4)</f>
+        <v>30</v>
+      </c>
+      <c r="J4" s="21">
+        <f>+E4-I4</f>
+        <v>-20</v>
+      </c>
+      <c r="K4" s="21">
+        <f>IF(J4&lt;0,0,MIN(E4,G4))</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="21">
+        <f>+G4-K4</f>
+        <v>30</v>
+      </c>
+      <c r="N4" s="21">
+        <f>MAX(J4,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="21">
+        <f>$A$4+SUM($B$4:B5)-SUM($C$4:C5)</f>
+        <v>10</v>
+      </c>
+      <c r="F5" s="21" t="str">
+        <f>IF(G5="","","P"&amp;COUNTA($G$4:G5))</f>
+        <v>P2</v>
+      </c>
+      <c r="G5" s="20">
+        <v>40</v>
+      </c>
+      <c r="H5" s="21">
+        <f t="shared" ref="H5:H20" si="0">+C5</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="21">
+        <f>SUM($G$4:G5)-SUM($H$4:H5)</f>
+        <v>70</v>
+      </c>
+      <c r="J5" s="21">
+        <f t="shared" ref="J5:J20" si="1">+E5-I5</f>
+        <v>-60</v>
+      </c>
+      <c r="K5" s="21">
+        <f t="shared" ref="K5:K20" si="2">IF(J5&lt;0,0,MIN(E5,G5))</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="21">
+        <f t="shared" ref="L5:L20" si="3">+G5-K5</f>
+        <v>40</v>
+      </c>
+      <c r="N5" s="21">
+        <f t="shared" ref="N5:N20" si="4">MAX(J5,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="21">
+        <f>$A$4+SUM($B$4:B6)-SUM($C$4:C6)</f>
+        <v>10</v>
+      </c>
+      <c r="F6" s="21" t="str">
+        <f>IF(G6="","","P"&amp;COUNTA($G$4:G6))</f>
+        <v>P3</v>
+      </c>
+      <c r="G6" s="20">
+        <v>15</v>
+      </c>
+      <c r="H6" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="21">
+        <f>SUM($G$4:G6)-SUM($H$4:H6)</f>
+        <v>85</v>
+      </c>
+      <c r="J6" s="21">
+        <f t="shared" si="1"/>
+        <v>-75</v>
+      </c>
+      <c r="K6" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="21">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="N6" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="20"/>
+      <c r="B7" s="20">
+        <v>60</v>
+      </c>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="21">
+        <f>$A$4+SUM($B$4:B7)-SUM($C$4:C7)</f>
+        <v>70</v>
+      </c>
+      <c r="F7" s="21" t="str">
+        <f>IF(G7="","","P"&amp;COUNTA($G$4:G7))</f>
+        <v/>
+      </c>
+      <c r="G7" s="20"/>
+      <c r="H7" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="21">
+        <f>SUM($G$4:G7)-SUM($H$4:H7)</f>
+        <v>85</v>
+      </c>
+      <c r="J7" s="21">
+        <f t="shared" si="1"/>
+        <v>-15</v>
+      </c>
+      <c r="K7" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20">
+        <v>15</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="E8" s="21">
+        <f>$A$4+SUM($B$4:B8)-SUM($C$4:C8)</f>
+        <v>55</v>
+      </c>
+      <c r="F8" s="21" t="str">
+        <f>IF(G8="","","P"&amp;COUNTA($G$4:G8))</f>
+        <v/>
+      </c>
+      <c r="G8" s="20"/>
+      <c r="H8" s="21">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="I8" s="21">
+        <f>SUM($G$4:G8)-SUM($H$4:H8)</f>
+        <v>70</v>
+      </c>
+      <c r="J8" s="21">
+        <f t="shared" si="1"/>
+        <v>-15</v>
+      </c>
+      <c r="K8" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="21">
+        <f>$A$4+SUM($B$4:B9)-SUM($C$4:C9)</f>
+        <v>55</v>
+      </c>
+      <c r="F9" s="21" t="str">
+        <f>IF(G9="","","P"&amp;COUNTA($G$4:G9))</f>
+        <v>P4</v>
+      </c>
+      <c r="G9" s="20">
+        <v>60</v>
+      </c>
+      <c r="H9" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="21">
+        <f>SUM($G$4:G9)-SUM($H$4:H9)</f>
+        <v>130</v>
+      </c>
+      <c r="J9" s="21">
+        <f t="shared" si="1"/>
+        <v>-75</v>
+      </c>
+      <c r="K9" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="21">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="N9" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="20"/>
+      <c r="B10" s="20">
+        <v>80</v>
+      </c>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="21">
+        <f>$A$4+SUM($B$4:B10)-SUM($C$4:C10)</f>
+        <v>135</v>
+      </c>
+      <c r="F10" s="21" t="str">
+        <f>IF(G10="","","P"&amp;COUNTA($G$4:G10))</f>
+        <v/>
+      </c>
+      <c r="G10" s="20"/>
+      <c r="H10" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="21">
+        <f>SUM($G$4:G10)-SUM($H$4:H10)</f>
+        <v>130</v>
+      </c>
+      <c r="J10" s="21">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="K10" s="21">
+        <f t="shared" si="2"/>
+        <v>135</v>
+      </c>
+      <c r="L10" s="21">
+        <f t="shared" si="3"/>
+        <v>-135</v>
+      </c>
+      <c r="N10" s="21">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="21">
+        <f>$A$4+SUM($B$4:B11)-SUM($C$4:C11)</f>
+        <v>135</v>
+      </c>
+      <c r="F11" s="21" t="str">
+        <f>IF(G11="","","P"&amp;COUNTA($G$4:G11))</f>
+        <v>P5</v>
+      </c>
+      <c r="G11" s="20">
+        <v>5</v>
+      </c>
+      <c r="H11" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="21">
+        <f>SUM($G$4:G11)-SUM($H$4:H11)</f>
+        <v>135</v>
+      </c>
+      <c r="J11" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="21">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="L11" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="20"/>
+      <c r="B12" s="20">
+        <v>40</v>
+      </c>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="21">
+        <f>$A$4+SUM($B$4:B12)-SUM($C$4:C12)</f>
+        <v>175</v>
+      </c>
+      <c r="F12" s="21" t="str">
+        <f>IF(G12="","","P"&amp;COUNTA($G$4:G12))</f>
+        <v/>
+      </c>
+      <c r="G12" s="20"/>
+      <c r="H12" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="21">
+        <f>SUM($G$4:G12)-SUM($H$4:H12)</f>
+        <v>135</v>
+      </c>
+      <c r="J12" s="21">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="K12" s="21">
+        <f t="shared" si="2"/>
+        <v>175</v>
+      </c>
+      <c r="L12" s="21">
+        <f t="shared" si="3"/>
+        <v>-175</v>
+      </c>
+      <c r="N12" s="21">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="21">
+        <f>$A$4+SUM($B$4:B13)-SUM($C$4:C13)</f>
+        <v>175</v>
+      </c>
+      <c r="F13" s="21" t="str">
+        <f>IF(G13="","","P"&amp;COUNTA($G$4:G13))</f>
+        <v>P6</v>
+      </c>
+      <c r="G13" s="20">
+        <v>20</v>
+      </c>
+      <c r="H13" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="21">
+        <f>SUM($G$4:G13)-SUM($H$4:H13)</f>
+        <v>155</v>
+      </c>
+      <c r="J13" s="21">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="K13" s="21">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="L13" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="21">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="20"/>
+      <c r="B14" s="20">
+        <v>30</v>
+      </c>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="21">
+        <f>$A$4+SUM($B$4:B14)-SUM($C$4:C14)</f>
+        <v>205</v>
+      </c>
+      <c r="F14" s="21" t="str">
+        <f>IF(G14="","","P"&amp;COUNTA($G$4:G14))</f>
+        <v/>
+      </c>
+      <c r="G14" s="20"/>
+      <c r="H14" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="21">
+        <f>SUM($G$4:G14)-SUM($H$4:H14)</f>
+        <v>155</v>
+      </c>
+      <c r="J14" s="21">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="K14" s="21">
+        <f t="shared" si="2"/>
+        <v>205</v>
+      </c>
+      <c r="L14" s="21">
+        <f t="shared" si="3"/>
+        <v>-205</v>
+      </c>
+      <c r="N14" s="21">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21">
+        <f>$A$4+SUM($B$4:B15)-SUM($C$4:C15)</f>
+        <v>205</v>
+      </c>
+      <c r="F15" s="21" t="str">
+        <f>IF(G15="","","P"&amp;COUNTA($G$4:G15))</f>
+        <v>P7</v>
+      </c>
+      <c r="G15" s="20">
+        <v>10</v>
+      </c>
+      <c r="H15" s="21">
+        <f t="shared" ref="H15" si="5">+C15</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="21">
+        <f>SUM($G$4:G15)-SUM($H$4:H15)</f>
+        <v>165</v>
+      </c>
+      <c r="J15" s="21">
+        <f t="shared" ref="J15" si="6">+E15-I15</f>
+        <v>40</v>
+      </c>
+      <c r="K15" s="21">
+        <f t="shared" ref="K15" si="7">IF(J15&lt;0,0,MIN(E15,G15))</f>
+        <v>10</v>
+      </c>
+      <c r="L15" s="21">
+        <f t="shared" ref="L15" si="8">+G15-K15</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="21">
+        <f t="shared" ref="N15" si="9">MAX(J15,0)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20">
+        <v>30</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="E16" s="21">
+        <f>$A$4+SUM($B$4:B16)-SUM($C$4:C16)</f>
+        <v>175</v>
+      </c>
+      <c r="F16" s="21" t="str">
+        <f>IF(G16="","","P"&amp;COUNTA($G$4:G16))</f>
+        <v/>
+      </c>
+      <c r="G16" s="20"/>
+      <c r="H16" s="21">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="I16" s="21">
+        <f>SUM($G$4:G16)-SUM($H$4:H16)</f>
+        <v>135</v>
+      </c>
+      <c r="J16" s="21">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="K16" s="21">
+        <f t="shared" si="2"/>
+        <v>175</v>
+      </c>
+      <c r="L16" s="21">
+        <f t="shared" si="3"/>
+        <v>-175</v>
+      </c>
+      <c r="N16" s="21">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20">
+        <v>40</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="E17" s="21">
+        <f>$A$4+SUM($B$4:B17)-SUM($C$4:C17)</f>
+        <v>135</v>
+      </c>
+      <c r="F17" s="21" t="str">
+        <f>IF(G17="","","P"&amp;COUNTA($G$4:G17))</f>
+        <v/>
+      </c>
+      <c r="G17" s="20"/>
+      <c r="H17" s="21">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="I17" s="21">
+        <f>SUM($G$4:G17)-SUM($H$4:H17)</f>
+        <v>95</v>
+      </c>
+      <c r="J17" s="21">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="K17" s="21">
+        <f t="shared" si="2"/>
+        <v>135</v>
+      </c>
+      <c r="L17" s="21">
+        <f t="shared" si="3"/>
+        <v>-135</v>
+      </c>
+      <c r="N17" s="21">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20">
+        <v>60</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="E18" s="21">
+        <f>$A$4+SUM($B$4:B18)-SUM($C$4:C18)</f>
+        <v>75</v>
+      </c>
+      <c r="F18" s="21" t="str">
+        <f>IF(G18="","","P"&amp;COUNTA($G$4:G18))</f>
+        <v/>
+      </c>
+      <c r="G18" s="20"/>
+      <c r="H18" s="21">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="I18" s="21">
+        <f>SUM($G$4:G18)-SUM($H$4:H18)</f>
+        <v>35</v>
+      </c>
+      <c r="J18" s="21">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="K18" s="21">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="L18" s="21">
+        <f t="shared" si="3"/>
+        <v>-75</v>
+      </c>
+      <c r="N18" s="21">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20">
+        <v>5</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="E19" s="21">
+        <f>$A$4+SUM($B$4:B19)-SUM($C$4:C19)</f>
+        <v>70</v>
+      </c>
+      <c r="F19" s="21" t="str">
+        <f>IF(G19="","","P"&amp;COUNTA($G$4:G19))</f>
+        <v/>
+      </c>
+      <c r="G19" s="20"/>
+      <c r="H19" s="21">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I19" s="21">
+        <f>SUM($G$4:G19)-SUM($H$4:H19)</f>
+        <v>30</v>
+      </c>
+      <c r="J19" s="21">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="K19" s="21">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="L19" s="21">
+        <f t="shared" si="3"/>
+        <v>-70</v>
+      </c>
+      <c r="N19" s="21">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="20"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20">
+        <v>20</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="E20" s="21">
+        <f>$A$4+SUM($B$4:B20)-SUM($C$4:C20)</f>
+        <v>50</v>
+      </c>
+      <c r="F20" s="21" t="str">
+        <f>IF(G20="","","P"&amp;COUNTA($G$4:G20))</f>
+        <v/>
+      </c>
+      <c r="G20" s="20"/>
+      <c r="H20" s="21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="I20" s="21">
+        <f>SUM($G$4:G20)-SUM($H$4:H20)</f>
+        <v>10</v>
+      </c>
+      <c r="J20" s="21">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="K20" s="21">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="L20" s="21">
+        <f t="shared" si="3"/>
+        <v>-50</v>
+      </c>
+      <c r="N20" s="21">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="20"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20">
+        <v>10</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="E21" s="21">
+        <f>$A$4+SUM($B$4:B21)-SUM($C$4:C21)</f>
+        <v>40</v>
+      </c>
+      <c r="F21" s="21" t="str">
+        <f>IF(G21="","","P"&amp;COUNTA($G$4:G21))</f>
+        <v/>
+      </c>
+      <c r="G21" s="20"/>
+      <c r="H21" s="21">
+        <f t="shared" ref="H21" si="10">+C21</f>
+        <v>10</v>
+      </c>
+      <c r="I21" s="21">
+        <f>SUM($G$4:G21)-SUM($H$4:H21)</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="21">
+        <f t="shared" ref="J21" si="11">+E21-I21</f>
+        <v>40</v>
+      </c>
+      <c r="K21" s="21">
+        <f t="shared" ref="K21" si="12">IF(J21&lt;0,0,MIN(E21,G21))</f>
+        <v>40</v>
+      </c>
+      <c r="L21" s="21">
+        <f t="shared" ref="L21" si="13">+G21-K21</f>
+        <v>-40</v>
+      </c>
+      <c r="N21" s="21">
+        <f t="shared" ref="N21" si="14">MAX(J21,0)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="20"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="21">
+        <f>$A$4+SUM($B$4:B22)-SUM($C$4:C22)</f>
+        <v>40</v>
+      </c>
+      <c r="F22" s="21" t="str">
+        <f>IF(G22="","","P"&amp;COUNTA($G$4:G22))</f>
+        <v/>
+      </c>
+      <c r="G22" s="20"/>
+      <c r="H22" s="21">
+        <f t="shared" ref="H22" si="15">+C22</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="21">
+        <f>SUM($G$4:G22)-SUM($H$4:H22)</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="21">
+        <f t="shared" ref="J22" si="16">+E22-I22</f>
+        <v>40</v>
+      </c>
+      <c r="K22" s="21">
+        <f t="shared" ref="K22" si="17">IF(J22&lt;0,0,MIN(E22,G22))</f>
+        <v>40</v>
+      </c>
+      <c r="L22" s="21">
+        <f t="shared" ref="L22" si="18">+G22-K22</f>
+        <v>-40</v>
+      </c>
+      <c r="N22" s="21">
+        <f t="shared" ref="N22" si="19">MAX(J22,0)</f>
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="57" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/PY19_ERP_TAG_THUONG_MAI/documents/TIMELINE_TONG_HOP_HUONG_DAN_NGHIEP_VU.xlsx
+++ b/PY19_ERP_TAG_THUONG_MAI/documents/TIMELINE_TONG_HOP_HUONG_DAN_NGHIEP_VU.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\ICONS\GITHUB\PYTHON_MINI_PROJECTS\PY19_ERP_TAG_THUONG_MAI\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\Github\PYTHON_MINI_PROJECTS\PY19_ERP_TAG_THUONG_MAI\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{309BC8B0-5872-4EA0-B64C-67629A616318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7650" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DANH_SACH_NGHIEP_VU_SAN_XUAT" sheetId="4" r:id="rId1"/>
     <sheet name="DANH_SACH_NGHIEP_VU_THUONG_MAI" sheetId="6" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId3"/>
+    <sheet name="KE_HOACH_GIU_CHO" sheetId="7" r:id="rId3"/>
     <sheet name="HUONG_DAN_NGHIEP_VU" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
@@ -23,17 +24,26 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">DANH_SACH_NGHIEP_VU_SAN_XUAT!$2:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">DANH_SACH_NGHIEP_VU_THUONG_MAI!$2:$2</definedName>
   </definedNames>
-  <calcPr calcId="162913" iterate="1"/>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="200">
   <si>
     <t>Bán hàng - Không xuất hóa đơn</t>
   </si>
@@ -1288,9 +1298,6 @@
     <t>SL yêu cầu đặt hàng</t>
   </si>
   <si>
-    <t>Ví dụ 01</t>
-  </si>
-  <si>
     <t>SL khả dụng user thấy</t>
   </si>
   <si>
@@ -1340,12 +1347,27 @@
   </si>
   <si>
     <t>P7</t>
+  </si>
+  <si>
+    <t>BẢNG BÁO CÁO NHẬP XUẤT TỒN</t>
+  </si>
+  <si>
+    <t>Phiếu quyết toán</t>
+  </si>
+  <si>
+    <t>BẢNG XUẤT KHO</t>
+  </si>
+  <si>
+    <t>BẢNG YÊU CẦU ĐẶT HÀNG</t>
+  </si>
+  <si>
+    <t>BẢNG GIỮ CHỖ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;Tỷ lệ hoàn thành tổng:&quot;\ 00%"/>
   </numFmts>
@@ -1435,7 +1457,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1470,8 +1492,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1494,6 +1540,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1501,7 +1565,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1552,12 +1616,24 @@
     <xf numFmtId="164" fontId="3" fillId="6" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Accent5" xfId="1" builtinId="45"/>
@@ -1602,7 +1678,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1640,7 +1722,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1928,7 +2016,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -1939,29 +2027,29 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" outlineLevelRow="2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" outlineLevelRow="2" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="69.85546875" style="10" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="37.5703125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="31.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="69.88671875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="37.5546875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="22.88671875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="31.88671875" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:5" ht="57" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
       <c r="E1" s="17">
         <f>AVERAGE(E3,E67,E85,E115)</f>
         <v>0.39686363636363636</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>79</v>
       </c>
@@ -1978,7 +2066,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
         <v>133</v>
       </c>
@@ -1992,7 +2080,7 @@
         <v>0.44045454545454549</v>
       </c>
     </row>
-    <row r="4" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>59</v>
       </c>
@@ -2008,7 +2096,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="5" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
         <v>60</v>
       </c>
@@ -2019,7 +2107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="56.25" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="54" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>115</v>
       </c>
@@ -2033,7 +2121,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
         <v>89</v>
       </c>
@@ -2047,7 +2135,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
         <v>87</v>
       </c>
@@ -2058,7 +2146,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
         <v>88</v>
       </c>
@@ -2069,7 +2157,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>94</v>
       </c>
@@ -2085,7 +2173,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="11" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
         <v>60</v>
       </c>
@@ -2096,7 +2184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="56.25" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="54" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>115</v>
       </c>
@@ -2110,7 +2198,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
         <v>93</v>
       </c>
@@ -2124,7 +2212,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
         <v>87</v>
       </c>
@@ -2135,7 +2223,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
         <v>88</v>
       </c>
@@ -2146,7 +2234,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
         <v>86</v>
       </c>
@@ -2162,7 +2250,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="17" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
         <v>60</v>
       </c>
@@ -2173,7 +2261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="56.25" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="54" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>115</v>
       </c>
@@ -2187,7 +2275,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
         <v>93</v>
       </c>
@@ -2201,7 +2289,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
         <v>87</v>
       </c>
@@ -2212,7 +2300,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="21" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
         <v>88</v>
       </c>
@@ -2223,7 +2311,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
         <v>95</v>
       </c>
@@ -2239,7 +2327,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="23" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A23" s="10" t="s">
         <v>60</v>
       </c>
@@ -2250,7 +2338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="56.25" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="54" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
         <v>115</v>
       </c>
@@ -2264,7 +2352,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A25" s="10" t="s">
         <v>93</v>
       </c>
@@ -2278,7 +2366,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="26" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A26" s="10" t="s">
         <v>87</v>
       </c>
@@ -2289,7 +2377,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="27" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A27" s="10" t="s">
         <v>88</v>
       </c>
@@ -2300,7 +2388,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A28" s="8" t="s">
         <v>96</v>
       </c>
@@ -2316,7 +2404,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="29" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A29" s="10" t="s">
         <v>60</v>
       </c>
@@ -2327,7 +2415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="56.25" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="54" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
         <v>115</v>
       </c>
@@ -2341,7 +2429,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="31" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A31" s="10" t="s">
         <v>93</v>
       </c>
@@ -2355,7 +2443,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="32" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A32" s="10" t="s">
         <v>87</v>
       </c>
@@ -2366,7 +2454,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="33" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A33" s="10" t="s">
         <v>88</v>
       </c>
@@ -2377,7 +2465,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A34" s="8" t="s">
         <v>97</v>
       </c>
@@ -2393,7 +2481,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="35" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A35" s="10" t="s">
         <v>60</v>
       </c>
@@ -2404,7 +2492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="56.25" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="54" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
         <v>115</v>
       </c>
@@ -2418,7 +2506,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A37" s="10" t="s">
         <v>93</v>
       </c>
@@ -2432,7 +2520,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="38" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A38" s="10" t="s">
         <v>87</v>
       </c>
@@ -2443,7 +2531,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="39" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A39" s="10" t="s">
         <v>88</v>
       </c>
@@ -2454,7 +2542,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A40" s="8" t="s">
         <v>98</v>
       </c>
@@ -2470,7 +2558,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="41" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A41" s="10" t="s">
         <v>60</v>
       </c>
@@ -2481,7 +2569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="56.25" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="54" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
         <v>115</v>
       </c>
@@ -2495,7 +2583,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="43" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A43" s="10" t="s">
         <v>93</v>
       </c>
@@ -2509,7 +2597,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="44" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A44" s="10" t="s">
         <v>87</v>
       </c>
@@ -2520,7 +2608,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="45" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A45" s="10" t="s">
         <v>88</v>
       </c>
@@ -2531,7 +2619,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="46" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8" t="s">
         <v>99</v>
       </c>
@@ -2547,7 +2635,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="47" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A47" s="10" t="s">
         <v>60</v>
       </c>
@@ -2558,7 +2646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="56.25" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" ht="54" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A48" s="9" t="s">
         <v>115</v>
       </c>
@@ -2572,7 +2660,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="49" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A49" s="10" t="s">
         <v>93</v>
       </c>
@@ -2586,7 +2674,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="50" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A50" s="10" t="s">
         <v>87</v>
       </c>
@@ -2597,7 +2685,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="51" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A51" s="10" t="s">
         <v>88</v>
       </c>
@@ -2608,7 +2696,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="52" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A52" s="8" t="s">
         <v>108</v>
       </c>
@@ -2624,7 +2712,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="53" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A53" s="10" t="s">
         <v>60</v>
       </c>
@@ -2635,7 +2723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="56.25" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" ht="54" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A54" s="9" t="s">
         <v>115</v>
       </c>
@@ -2649,7 +2737,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="55" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A55" s="10" t="s">
         <v>93</v>
       </c>
@@ -2663,7 +2751,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="56" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A56" s="10" t="s">
         <v>87</v>
       </c>
@@ -2674,7 +2762,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="57" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A57" s="10" t="s">
         <v>88</v>
       </c>
@@ -2685,7 +2773,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="58" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A58" s="8" t="s">
         <v>109</v>
       </c>
@@ -2701,7 +2789,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A59" s="10" t="s">
         <v>110</v>
       </c>
@@ -2715,7 +2803,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="60" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A60" s="10" t="s">
         <v>111</v>
       </c>
@@ -2729,7 +2817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A61" s="8" t="s">
         <v>120</v>
       </c>
@@ -2743,7 +2831,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="62" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A62" s="10" t="s">
         <v>116</v>
       </c>
@@ -2754,7 +2842,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="131.25" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" ht="126" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A63" s="9" t="s">
         <v>119</v>
       </c>
@@ -2765,7 +2853,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="64" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A64" s="10" t="s">
         <v>117</v>
       </c>
@@ -2776,7 +2864,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="65" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A65" s="10" t="s">
         <v>118</v>
       </c>
@@ -2787,7 +2875,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="66" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A66" s="10" t="s">
         <v>118</v>
       </c>
@@ -2798,7 +2886,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="14" t="s">
         <v>134</v>
       </c>
@@ -2812,7 +2900,7 @@
         <v>0.39128571428571429</v>
       </c>
     </row>
-    <row r="68" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A68" s="8" t="s">
         <v>123</v>
       </c>
@@ -2828,7 +2916,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="69" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A69" s="10" t="s">
         <v>60</v>
       </c>
@@ -2839,7 +2927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="56.25" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" ht="54" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A70" s="9" t="s">
         <v>115</v>
       </c>
@@ -2853,7 +2941,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="71" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A71" s="10" t="s">
         <v>89</v>
       </c>
@@ -2867,7 +2955,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="72" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A72" s="10" t="s">
         <v>87</v>
       </c>
@@ -2878,7 +2966,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="73" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A73" s="10" t="s">
         <v>88</v>
       </c>
@@ -2889,7 +2977,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="74" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A74" s="8" t="s">
         <v>97</v>
       </c>
@@ -2905,7 +2993,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="75" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A75" s="10" t="s">
         <v>60</v>
       </c>
@@ -2916,7 +3004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="56.25" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" ht="54" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A76" s="9" t="s">
         <v>115</v>
       </c>
@@ -2930,7 +3018,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="77" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A77" s="10" t="s">
         <v>93</v>
       </c>
@@ -2944,7 +3032,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="78" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A78" s="10" t="s">
         <v>87</v>
       </c>
@@ -2955,7 +3043,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="79" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A79" s="10" t="s">
         <v>88</v>
       </c>
@@ -2966,7 +3054,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="80" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A80" s="8" t="s">
         <v>128</v>
       </c>
@@ -2982,7 +3070,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A81" s="10" t="s">
         <v>110</v>
       </c>
@@ -2996,7 +3084,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="82" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A82" s="10" t="s">
         <v>111</v>
       </c>
@@ -3010,7 +3098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A83" s="8" t="s">
         <v>120</v>
       </c>
@@ -3024,7 +3112,7 @@
         <v>0.58014285714285718</v>
       </c>
     </row>
-    <row r="84" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A84" s="10" t="s">
         <v>132</v>
       </c>
@@ -3035,7 +3123,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="14" t="s">
         <v>135</v>
       </c>
@@ -3049,7 +3137,7 @@
         <v>0.42071428571428571</v>
       </c>
     </row>
-    <row r="86" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A86" s="8" t="s">
         <v>86</v>
       </c>
@@ -3065,7 +3153,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="87" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A87" s="10" t="s">
         <v>60</v>
       </c>
@@ -3076,7 +3164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="56.25" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" ht="54" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A88" s="9" t="s">
         <v>115</v>
       </c>
@@ -3090,7 +3178,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="89" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A89" s="10" t="s">
         <v>89</v>
       </c>
@@ -3104,7 +3192,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="90" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A90" s="10" t="s">
         <v>87</v>
       </c>
@@ -3115,7 +3203,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="91" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A91" s="10" t="s">
         <v>88</v>
       </c>
@@ -3126,7 +3214,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="92" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A92" s="8" t="s">
         <v>139</v>
       </c>
@@ -3142,7 +3230,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="93" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A93" s="10" t="s">
         <v>60</v>
       </c>
@@ -3153,7 +3241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="56.25" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" ht="54" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A94" s="9" t="s">
         <v>115</v>
       </c>
@@ -3167,7 +3255,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="95" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A95" s="10" t="s">
         <v>89</v>
       </c>
@@ -3181,7 +3269,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="96" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A96" s="10" t="s">
         <v>87</v>
       </c>
@@ -3192,7 +3280,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="97" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A97" s="10" t="s">
         <v>88</v>
       </c>
@@ -3203,7 +3291,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="98" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A98" s="8" t="s">
         <v>143</v>
       </c>
@@ -3219,7 +3307,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="99" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A99" s="10" t="s">
         <v>60</v>
       </c>
@@ -3230,7 +3318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="56.25" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" ht="54" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A100" s="9" t="s">
         <v>115</v>
       </c>
@@ -3244,7 +3332,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="101" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A101" s="10" t="s">
         <v>89</v>
       </c>
@@ -3258,7 +3346,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="102" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A102" s="10" t="s">
         <v>87</v>
       </c>
@@ -3269,7 +3357,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="103" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A103" s="10" t="s">
         <v>88</v>
       </c>
@@ -3280,7 +3368,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="104" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A104" s="8" t="s">
         <v>95</v>
       </c>
@@ -3296,7 +3384,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="105" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A105" s="10" t="s">
         <v>60</v>
       </c>
@@ -3307,7 +3395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="56.25" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" ht="54" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A106" s="9" t="s">
         <v>115</v>
       </c>
@@ -3321,7 +3409,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="107" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A107" s="10" t="s">
         <v>89</v>
       </c>
@@ -3335,7 +3423,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="108" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A108" s="10" t="s">
         <v>87</v>
       </c>
@@ -3346,7 +3434,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="109" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A109" s="10" t="s">
         <v>88</v>
       </c>
@@ -3357,7 +3445,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="110" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A110" s="8" t="s">
         <v>151</v>
       </c>
@@ -3373,7 +3461,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A111" s="10" t="s">
         <v>110</v>
       </c>
@@ -3387,7 +3475,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="112" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A112" s="10" t="s">
         <v>111</v>
       </c>
@@ -3401,7 +3489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A113" s="8" t="s">
         <v>120</v>
       </c>
@@ -3415,7 +3503,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="114" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A114" s="10" t="s">
         <v>155</v>
       </c>
@@ -3426,7 +3514,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" s="14" t="s">
         <v>156</v>
       </c>
@@ -3440,7 +3528,7 @@
         <v>0.33499999999999996</v>
       </c>
     </row>
-    <row r="116" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A116" s="8" t="s">
         <v>143</v>
       </c>
@@ -3456,7 +3544,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="117" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A117" s="10" t="s">
         <v>60</v>
       </c>
@@ -3467,7 +3555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="56.25" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" ht="54" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A118" s="9" t="s">
         <v>115</v>
       </c>
@@ -3481,7 +3569,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="119" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A119" s="10" t="s">
         <v>89</v>
       </c>
@@ -3495,7 +3583,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="120" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A120" s="10" t="s">
         <v>87</v>
       </c>
@@ -3506,7 +3594,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="121" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A121" s="10" t="s">
         <v>88</v>
       </c>
@@ -3517,7 +3605,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="122" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A122" s="8" t="s">
         <v>151</v>
       </c>
@@ -3533,7 +3621,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A123" s="10" t="s">
         <v>110</v>
       </c>
@@ -3547,7 +3635,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="124" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A124" s="10" t="s">
         <v>111</v>
       </c>
@@ -3561,7 +3649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A125" s="8" t="s">
         <v>120</v>
       </c>
@@ -3575,7 +3663,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="126" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A126" s="10" t="s">
         <v>155</v>
       </c>
@@ -3587,7 +3675,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:E21"/>
+  <autoFilter ref="A2:E21" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
@@ -3600,7 +3688,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="0.39997558519241921"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -3611,29 +3699,29 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" outlineLevelRow="2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" outlineLevelRow="2" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="69.85546875" style="10" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="37.5703125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="31.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="69.88671875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="37.5546875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="22.88671875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="31.88671875" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:5" ht="57" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
       <c r="E1" s="17">
         <f>AVERAGE(E3,E34)</f>
         <v>0.38937499999999997</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>79</v>
       </c>
@@ -3650,7 +3738,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
         <v>133</v>
       </c>
@@ -3664,7 +3752,7 @@
         <v>0.40749999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:5" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>166</v>
       </c>
@@ -3680,7 +3768,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
         <v>60</v>
       </c>
@@ -3691,7 +3779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="56.25" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="54" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>115</v>
       </c>
@@ -3705,7 +3793,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
         <v>93</v>
       </c>
@@ -3719,7 +3807,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
         <v>87</v>
       </c>
@@ -3730,7 +3818,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
         <v>88</v>
       </c>
@@ -3741,7 +3829,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>163</v>
       </c>
@@ -3757,7 +3845,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
         <v>60</v>
       </c>
@@ -3768,7 +3856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="56.25" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="54" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>115</v>
       </c>
@@ -3782,7 +3870,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
         <v>93</v>
       </c>
@@ -3796,7 +3884,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
         <v>87</v>
       </c>
@@ -3807,7 +3895,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
         <v>88</v>
       </c>
@@ -3818,7 +3906,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
         <v>59</v>
       </c>
@@ -3834,7 +3922,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
         <v>60</v>
       </c>
@@ -3845,7 +3933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="56.25" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="54" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>115</v>
       </c>
@@ -3859,7 +3947,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
         <v>93</v>
       </c>
@@ -3873,7 +3961,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
         <v>87</v>
       </c>
@@ -3884,7 +3972,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="21" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
         <v>88</v>
       </c>
@@ -3895,7 +3983,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
         <v>164</v>
       </c>
@@ -3911,7 +3999,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A23" s="10" t="s">
         <v>60</v>
       </c>
@@ -3922,7 +4010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="56.25" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="54" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
         <v>115</v>
       </c>
@@ -3936,7 +4024,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A25" s="10" t="s">
         <v>93</v>
       </c>
@@ -3950,7 +4038,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="26" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A26" s="10" t="s">
         <v>87</v>
       </c>
@@ -3961,7 +4049,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="27" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A27" s="10" t="s">
         <v>88</v>
       </c>
@@ -3972,7 +4060,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="A28" s="8" t="s">
         <v>109</v>
       </c>
@@ -3988,7 +4076,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A29" s="10" t="s">
         <v>110</v>
       </c>
@@ -4002,7 +4090,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="30" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A30" s="10" t="s">
         <v>111</v>
       </c>
@@ -4016,7 +4104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="A31" s="8" t="s">
         <v>120</v>
       </c>
@@ -4030,7 +4118,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="32" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A32" s="10" t="s">
         <v>165</v>
       </c>
@@ -4041,7 +4129,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="131.25" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="126" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
         <v>119</v>
       </c>
@@ -4052,7 +4140,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="14" t="s">
         <v>167</v>
       </c>
@@ -4066,7 +4154,7 @@
         <v>0.37124999999999997</v>
       </c>
     </row>
-    <row r="35" spans="1:5" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="A35" s="8" t="s">
         <v>123</v>
       </c>
@@ -4082,7 +4170,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="36" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A36" s="10" t="s">
         <v>60</v>
       </c>
@@ -4093,7 +4181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="56.25" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="54" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A37" s="9" t="s">
         <v>115</v>
       </c>
@@ -4107,7 +4195,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A38" s="10" t="s">
         <v>89</v>
       </c>
@@ -4121,7 +4209,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="39" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A39" s="10" t="s">
         <v>87</v>
       </c>
@@ -4132,7 +4220,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="40" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A40" s="10" t="s">
         <v>88</v>
       </c>
@@ -4143,7 +4231,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="A41" s="8" t="s">
         <v>168</v>
       </c>
@@ -4159,7 +4247,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="42" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A42" s="10" t="s">
         <v>60</v>
       </c>
@@ -4170,7 +4258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="56.25" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" ht="54" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A43" s="9" t="s">
         <v>115</v>
       </c>
@@ -4184,7 +4272,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="44" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A44" s="10" t="s">
         <v>93</v>
       </c>
@@ -4198,7 +4286,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="45" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A45" s="10" t="s">
         <v>87</v>
       </c>
@@ -4209,7 +4297,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="46" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A46" s="10" t="s">
         <v>88</v>
       </c>
@@ -4220,7 +4308,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="47" spans="1:5" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="A47" s="8" t="s">
         <v>169</v>
       </c>
@@ -4236,7 +4324,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A48" s="10" t="s">
         <v>110</v>
       </c>
@@ -4250,7 +4338,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="49" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A49" s="10" t="s">
         <v>111</v>
       </c>
@@ -4264,7 +4352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="A50" s="8" t="s">
         <v>120</v>
       </c>
@@ -4278,7 +4366,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="51" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A51" s="10" t="s">
         <v>170</v>
       </c>
@@ -4290,7 +4378,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:E21"/>
+  <autoFilter ref="A2:E21" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
@@ -4303,866 +4391,981 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A2:U23"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="13" width="8.5546875" customWidth="1"/>
+    <col min="15" max="15" width="9.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+    </row>
+    <row r="3" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="24"/>
+    </row>
+    <row r="4" spans="1:21" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="K4" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="L4" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="M4" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="O4" s="21" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="D3" s="19" t="s">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A5" s="18">
+        <v>10</v>
+      </c>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19">
+        <f>$A$5+SUM($B$5:B5)-SUM($C$5:C5)</f>
+        <v>10</v>
+      </c>
+      <c r="F5" s="19">
+        <f>+E5-M5</f>
+        <v>10</v>
+      </c>
+      <c r="G5" s="19" t="str">
+        <f>IF(H5="","","P"&amp;COUNTA($H$5:H5))</f>
+        <v/>
+      </c>
+      <c r="H5" s="18"/>
+      <c r="I5" s="19">
+        <f>IF(F4&lt;=0,0,IF(H5=0,0,MAX(0,MIN(F4,H5))))</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="19">
+        <f>IF(H5=0,0,H5-I5)</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="19" t="str">
+        <f>IF(C5="","",C5)</f>
+        <v/>
+      </c>
+      <c r="L5" s="19" t="str">
+        <f>IF(D5="","",D5)</f>
+        <v/>
+      </c>
+      <c r="M5" s="19">
+        <f>SUM($H$5:H5)-SUM($K$5:K5)</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="19">
+        <f>MAX(F5,0)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="19">
+        <f>$A$5+SUM($B$5:B6)-SUM($C$5:C6)</f>
+        <v>10</v>
+      </c>
+      <c r="F6" s="19">
+        <f>+E6-M6</f>
+        <v>-20</v>
+      </c>
+      <c r="G6" s="19" t="str">
+        <f>IF(H6="","","P"&amp;COUNTA($H$5:H6))</f>
+        <v>P1</v>
+      </c>
+      <c r="H6" s="18">
+        <v>30</v>
+      </c>
+      <c r="I6" s="19">
+        <f>IF(F5&lt;=0,0,IF(H6=0,0,MAX(0,MIN(F5,H6))))</f>
+        <v>10</v>
+      </c>
+      <c r="J6" s="19">
+        <f>IF(H6=0,0,H6-I6)</f>
+        <v>20</v>
+      </c>
+      <c r="K6" s="19" t="str">
+        <f t="shared" ref="K6:K23" si="0">IF(C6="","",C6)</f>
+        <v/>
+      </c>
+      <c r="L6" s="19" t="str">
+        <f t="shared" ref="L6:L23" si="1">IF(D6="","",D6)</f>
+        <v/>
+      </c>
+      <c r="M6" s="19">
+        <f>SUM($H$5:H6)-SUM($K$5:K6)</f>
+        <v>30</v>
+      </c>
+      <c r="O6" s="19">
+        <f>MAX(F6,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="19">
+        <f>$A$5+SUM($B$5:B7)-SUM($C$5:C7)</f>
+        <v>10</v>
+      </c>
+      <c r="F7" s="19">
+        <f>+E7-M7</f>
+        <v>-60</v>
+      </c>
+      <c r="G7" s="19" t="str">
+        <f>IF(H7="","","P"&amp;COUNTA($H$5:H7))</f>
+        <v>P2</v>
+      </c>
+      <c r="H7" s="18">
+        <v>40</v>
+      </c>
+      <c r="I7" s="19">
+        <f>IF(F6&lt;=0,0,IF(H7=0,0,MAX(0,MIN(F6,H7))))</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="19">
+        <f>IF(H7=0,0,H7-I7)</f>
+        <v>40</v>
+      </c>
+      <c r="K7" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L7" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M7" s="19">
+        <f>SUM($H$5:H7)-SUM($K$5:K7)</f>
+        <v>70</v>
+      </c>
+      <c r="O7" s="19">
+        <f>MAX(F7,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="23"/>
+    </row>
+    <row r="8" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="19">
+        <f>$A$5+SUM($B$5:B8)-SUM($C$5:C8)</f>
+        <v>10</v>
+      </c>
+      <c r="F8" s="19">
+        <f>+E8-M8</f>
+        <v>-75</v>
+      </c>
+      <c r="G8" s="19" t="str">
+        <f>IF(H8="","","P"&amp;COUNTA($H$5:H8))</f>
+        <v>P3</v>
+      </c>
+      <c r="H8" s="18">
+        <v>15</v>
+      </c>
+      <c r="I8" s="19">
+        <f>IF(F7&lt;=0,0,IF(H8=0,0,MAX(0,MIN(F7,H8))))</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="19">
+        <f>IF(H8=0,0,H8-I8)</f>
+        <v>15</v>
+      </c>
+      <c r="K8" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L8" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M8" s="19">
+        <f>SUM($H$5:H8)-SUM($K$5:K8)</f>
+        <v>85</v>
+      </c>
+      <c r="O8" s="19">
+        <f>MAX(F8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="R8" s="28"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="28"/>
+      <c r="U8" s="28"/>
+    </row>
+    <row r="9" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+      <c r="A9" s="18"/>
+      <c r="B9" s="18">
+        <v>60</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="19">
+        <f>$A$5+SUM($B$5:B9)-SUM($C$5:C9)</f>
+        <v>70</v>
+      </c>
+      <c r="F9" s="19">
+        <f>+E9-M9</f>
+        <v>-15</v>
+      </c>
+      <c r="G9" s="19" t="str">
+        <f>IF(H9="","","P"&amp;COUNTA($H$5:H9))</f>
+        <v/>
+      </c>
+      <c r="H9" s="18"/>
+      <c r="I9" s="19">
+        <f>IF(F8&lt;=0,0,IF(H9=0,0,MAX(0,MIN(F8,H9))))</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="19">
+        <f>IF(H9=0,0,H9-I9)</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L9" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M9" s="19">
+        <f>SUM($H$5:H9)-SUM($K$5:K9)</f>
+        <v>85</v>
+      </c>
+      <c r="O9" s="19">
+        <f>MAX(F9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="R9" s="29"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="29"/>
+    </row>
+    <row r="10" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18">
+        <v>15</v>
+      </c>
+      <c r="D10" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="E3" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="I3" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="J3" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="K3" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="L3" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="N3" s="19" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="20">
-        <v>10</v>
-      </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="21">
-        <f>$A$4+SUM($B$4:B4)-SUM($C$4:C4)</f>
-        <v>10</v>
-      </c>
-      <c r="F4" s="21" t="str">
-        <f>IF(G4="","","P"&amp;COUNTA($G$4:G4))</f>
-        <v>P1</v>
-      </c>
-      <c r="G4" s="20">
-        <v>30</v>
-      </c>
-      <c r="H4" s="21">
-        <f>+C4</f>
+      <c r="E10" s="19">
+        <f>$A$5+SUM($B$5:B10)-SUM($C$5:C10)</f>
+        <v>55</v>
+      </c>
+      <c r="F10" s="19">
+        <f>+E10-M10</f>
+        <v>-15</v>
+      </c>
+      <c r="G10" s="19" t="str">
+        <f>IF(H10="","","P"&amp;COUNTA($H$5:H10))</f>
+        <v/>
+      </c>
+      <c r="H10" s="18"/>
+      <c r="I10" s="19">
+        <f>IF(F9&lt;=0,0,IF(H10=0,0,MAX(0,MIN(F9,H10))))</f>
         <v>0</v>
       </c>
-      <c r="I4" s="21">
-        <f>SUM($G$4:G4)-SUM($H$4:H4)</f>
-        <v>30</v>
-      </c>
-      <c r="J4" s="21">
-        <f>+E4-I4</f>
-        <v>-20</v>
-      </c>
-      <c r="K4" s="21">
-        <f>IF(J4&lt;0,0,MIN(E4,G4))</f>
+      <c r="J10" s="19">
+        <f>IF(H10=0,0,H10-I10)</f>
         <v>0</v>
       </c>
-      <c r="L4" s="21">
-        <f>+G4-K4</f>
-        <v>30</v>
-      </c>
-      <c r="N4" s="21">
-        <f>MAX(J4,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="21">
-        <f>$A$4+SUM($B$4:B5)-SUM($C$4:C5)</f>
-        <v>10</v>
-      </c>
-      <c r="F5" s="21" t="str">
-        <f>IF(G5="","","P"&amp;COUNTA($G$4:G5))</f>
-        <v>P2</v>
-      </c>
-      <c r="G5" s="20">
-        <v>40</v>
-      </c>
-      <c r="H5" s="21">
-        <f t="shared" ref="H5:H20" si="0">+C5</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="21">
-        <f>SUM($G$4:G5)-SUM($H$4:H5)</f>
-        <v>70</v>
-      </c>
-      <c r="J5" s="21">
-        <f t="shared" ref="J5:J20" si="1">+E5-I5</f>
-        <v>-60</v>
-      </c>
-      <c r="K5" s="21">
-        <f t="shared" ref="K5:K20" si="2">IF(J5&lt;0,0,MIN(E5,G5))</f>
-        <v>0</v>
-      </c>
-      <c r="L5" s="21">
-        <f t="shared" ref="L5:L20" si="3">+G5-K5</f>
-        <v>40</v>
-      </c>
-      <c r="N5" s="21">
-        <f t="shared" ref="N5:N20" si="4">MAX(J5,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="21">
-        <f>$A$4+SUM($B$4:B6)-SUM($C$4:C6)</f>
-        <v>10</v>
-      </c>
-      <c r="F6" s="21" t="str">
-        <f>IF(G6="","","P"&amp;COUNTA($G$4:G6))</f>
-        <v>P3</v>
-      </c>
-      <c r="G6" s="20">
-        <v>15</v>
-      </c>
-      <c r="H6" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I6" s="21">
-        <f>SUM($G$4:G6)-SUM($H$4:H6)</f>
-        <v>85</v>
-      </c>
-      <c r="J6" s="21">
-        <f t="shared" si="1"/>
-        <v>-75</v>
-      </c>
-      <c r="K6" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L6" s="21">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="N6" s="21">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20">
-        <v>60</v>
-      </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="21">
-        <f>$A$4+SUM($B$4:B7)-SUM($C$4:C7)</f>
-        <v>70</v>
-      </c>
-      <c r="F7" s="21" t="str">
-        <f>IF(G7="","","P"&amp;COUNTA($G$4:G7))</f>
-        <v/>
-      </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="21">
-        <f>SUM($G$4:G7)-SUM($H$4:H7)</f>
-        <v>85</v>
-      </c>
-      <c r="J7" s="21">
-        <f t="shared" si="1"/>
-        <v>-15</v>
-      </c>
-      <c r="K7" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L7" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N7" s="21">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20">
-        <v>15</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="E8" s="21">
-        <f>$A$4+SUM($B$4:B8)-SUM($C$4:C8)</f>
-        <v>55</v>
-      </c>
-      <c r="F8" s="21" t="str">
-        <f>IF(G8="","","P"&amp;COUNTA($G$4:G8))</f>
-        <v/>
-      </c>
-      <c r="G8" s="20"/>
-      <c r="H8" s="21">
+      <c r="K10" s="19">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="I8" s="21">
-        <f>SUM($G$4:G8)-SUM($H$4:H8)</f>
+      <c r="L10" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>P3</v>
+      </c>
+      <c r="M10" s="19">
+        <f>SUM($H$5:H10)-SUM($K$5:K10)</f>
         <v>70</v>
       </c>
-      <c r="J8" s="21">
+      <c r="O10" s="19">
+        <f>MAX(F10,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="27"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="19">
+        <f>$A$5+SUM($B$5:B11)-SUM($C$5:C11)</f>
+        <v>55</v>
+      </c>
+      <c r="F11" s="19">
+        <f>+E11-M11</f>
+        <v>-75</v>
+      </c>
+      <c r="G11" s="19" t="str">
+        <f>IF(H11="","","P"&amp;COUNTA($H$5:H11))</f>
+        <v>P4</v>
+      </c>
+      <c r="H11" s="18">
+        <v>60</v>
+      </c>
+      <c r="I11" s="19">
+        <f>IF(F10&lt;=0,0,IF(H11=0,0,MAX(0,MIN(F10,H11))))</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="19">
+        <f>IF(H11=0,0,H11-I11)</f>
+        <v>60</v>
+      </c>
+      <c r="K11" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L11" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>-15</v>
-      </c>
-      <c r="K8" s="21">
-        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M11" s="19">
+        <f>SUM($H$5:H11)-SUM($K$5:K11)</f>
+        <v>130</v>
+      </c>
+      <c r="O11" s="19">
+        <f>MAX(F11,0)</f>
         <v>0</v>
       </c>
-      <c r="L8" s="21">
-        <f t="shared" si="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A12" s="18"/>
+      <c r="B12" s="18">
+        <v>80</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="19">
+        <f>$A$5+SUM($B$5:B12)-SUM($C$5:C12)</f>
+        <v>135</v>
+      </c>
+      <c r="F12" s="19">
+        <f>+E12-M12</f>
+        <v>5</v>
+      </c>
+      <c r="G12" s="19" t="str">
+        <f>IF(H12="","","P"&amp;COUNTA($H$5:H12))</f>
+        <v/>
+      </c>
+      <c r="H12" s="18"/>
+      <c r="I12" s="19">
+        <f>IF(F11&lt;=0,0,IF(H12=0,0,MAX(0,MIN(F11,H12))))</f>
         <v>0</v>
       </c>
-      <c r="N8" s="21">
-        <f t="shared" si="4"/>
+      <c r="J12" s="19">
+        <f>IF(H12=0,0,H12-I12)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="21">
-        <f>$A$4+SUM($B$4:B9)-SUM($C$4:C9)</f>
-        <v>55</v>
-      </c>
-      <c r="F9" s="21" t="str">
-        <f>IF(G9="","","P"&amp;COUNTA($G$4:G9))</f>
-        <v>P4</v>
-      </c>
-      <c r="G9" s="20">
-        <v>60</v>
-      </c>
-      <c r="H9" s="21">
+      <c r="K12" s="19" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L12" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M12" s="19">
+        <f>SUM($H$5:H12)-SUM($K$5:K12)</f>
+        <v>130</v>
+      </c>
+      <c r="O12" s="19">
+        <f>MAX(F12,0)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="19">
+        <f>$A$5+SUM($B$5:B13)-SUM($C$5:C13)</f>
+        <v>135</v>
+      </c>
+      <c r="F13" s="19">
+        <f>+E13-M13</f>
         <v>0</v>
       </c>
-      <c r="I9" s="21">
-        <f>SUM($G$4:G9)-SUM($H$4:H9)</f>
-        <v>130</v>
-      </c>
-      <c r="J9" s="21">
+      <c r="G13" s="19" t="str">
+        <f>IF(H13="","","P"&amp;COUNTA($H$5:H13))</f>
+        <v>P5</v>
+      </c>
+      <c r="H13" s="18">
+        <v>5</v>
+      </c>
+      <c r="I13" s="19">
+        <f>IF(F12&lt;=0,0,IF(H13=0,0,MAX(0,MIN(F12,H13))))</f>
+        <v>5</v>
+      </c>
+      <c r="J13" s="19">
+        <f>IF(H13=0,0,H13-I13)</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L13" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>-75</v>
-      </c>
-      <c r="K9" s="21">
-        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M13" s="19">
+        <f>SUM($H$5:H13)-SUM($K$5:K13)</f>
+        <v>135</v>
+      </c>
+      <c r="O13" s="19">
+        <f>MAX(F13,0)</f>
         <v>0</v>
       </c>
-      <c r="L9" s="21">
-        <f t="shared" si="3"/>
-        <v>60</v>
-      </c>
-      <c r="N9" s="21">
-        <f t="shared" si="4"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A14" s="18"/>
+      <c r="B14" s="18">
+        <v>40</v>
+      </c>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="19">
+        <f>$A$5+SUM($B$5:B14)-SUM($C$5:C14)</f>
+        <v>175</v>
+      </c>
+      <c r="F14" s="19">
+        <f>+E14-M14</f>
+        <v>40</v>
+      </c>
+      <c r="G14" s="19" t="str">
+        <f>IF(H14="","","P"&amp;COUNTA($H$5:H14))</f>
+        <v/>
+      </c>
+      <c r="H14" s="18"/>
+      <c r="I14" s="19">
+        <f>IF(F13&lt;=0,0,IF(H14=0,0,MAX(0,MIN(F13,H14))))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20">
-        <v>80</v>
-      </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="21">
-        <f>$A$4+SUM($B$4:B10)-SUM($C$4:C10)</f>
+      <c r="J14" s="19">
+        <f>IF(H14=0,0,H14-I14)</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L14" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M14" s="19">
+        <f>SUM($H$5:H14)-SUM($K$5:K14)</f>
         <v>135</v>
       </c>
-      <c r="F10" s="21" t="str">
-        <f>IF(G10="","","P"&amp;COUNTA($G$4:G10))</f>
+      <c r="O14" s="19">
+        <f>MAX(F14,0)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="19">
+        <f>$A$5+SUM($B$5:B15)-SUM($C$5:C15)</f>
+        <v>175</v>
+      </c>
+      <c r="F15" s="19">
+        <f>+E15-M15</f>
+        <v>20</v>
+      </c>
+      <c r="G15" s="19" t="str">
+        <f>IF(H15="","","P"&amp;COUNTA($H$5:H15))</f>
+        <v>P6</v>
+      </c>
+      <c r="H15" s="18">
+        <v>20</v>
+      </c>
+      <c r="I15" s="19">
+        <f>IF(F14&lt;=0,0,IF(H15=0,0,MAX(0,MIN(F14,H15))))</f>
+        <v>20</v>
+      </c>
+      <c r="J15" s="19">
+        <f>IF(H15=0,0,H15-I15)</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="19" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G10" s="20"/>
-      <c r="H10" s="21">
+      <c r="L15" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M15" s="19">
+        <f>SUM($H$5:H15)-SUM($K$5:K15)</f>
+        <v>155</v>
+      </c>
+      <c r="O15" s="19">
+        <f>MAX(F15,0)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A16" s="18"/>
+      <c r="B16" s="18">
+        <v>30</v>
+      </c>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="19">
+        <f>$A$5+SUM($B$5:B16)-SUM($C$5:C16)</f>
+        <v>205</v>
+      </c>
+      <c r="F16" s="19">
+        <f>+E16-M16</f>
+        <v>50</v>
+      </c>
+      <c r="G16" s="19" t="str">
+        <f>IF(H16="","","P"&amp;COUNTA($H$5:H16))</f>
+        <v/>
+      </c>
+      <c r="H16" s="18"/>
+      <c r="I16" s="19">
+        <f>IF(F15&lt;=0,0,IF(H16=0,0,MAX(0,MIN(F15,H16))))</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="19">
+        <f>IF(H16=0,0,H16-I16)</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="19" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L16" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M16" s="19">
+        <f>SUM($H$5:H16)-SUM($K$5:K16)</f>
+        <v>155</v>
+      </c>
+      <c r="O16" s="19">
+        <f>MAX(F16,0)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="19">
+        <f>$A$5+SUM($B$5:B17)-SUM($C$5:C17)</f>
+        <v>205</v>
+      </c>
+      <c r="F17" s="19">
+        <f>+E17-M17</f>
+        <v>40</v>
+      </c>
+      <c r="G17" s="19" t="str">
+        <f>IF(H17="","","P"&amp;COUNTA($H$5:H17))</f>
+        <v>P7</v>
+      </c>
+      <c r="H17" s="18">
+        <v>10</v>
+      </c>
+      <c r="I17" s="19">
+        <f>IF(F16&lt;=0,0,IF(H17=0,0,MAX(0,MIN(F16,H17))))</f>
+        <v>10</v>
+      </c>
+      <c r="J17" s="19">
+        <f>IF(H17=0,0,H17-I17)</f>
         <v>0</v>
       </c>
-      <c r="I10" s="21">
-        <f>SUM($G$4:G10)-SUM($H$4:H10)</f>
-        <v>130</v>
-      </c>
-      <c r="J10" s="21">
+      <c r="K17" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L17" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="K10" s="21">
-        <f t="shared" si="2"/>
-        <v>135</v>
-      </c>
-      <c r="L10" s="21">
-        <f t="shared" si="3"/>
-        <v>-135</v>
-      </c>
-      <c r="N10" s="21">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="21">
-        <f>$A$4+SUM($B$4:B11)-SUM($C$4:C11)</f>
-        <v>135</v>
-      </c>
-      <c r="F11" s="21" t="str">
-        <f>IF(G11="","","P"&amp;COUNTA($G$4:G11))</f>
-        <v>P5</v>
-      </c>
-      <c r="G11" s="20">
-        <v>5</v>
-      </c>
-      <c r="H11" s="21">
-        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M17" s="19">
+        <f>SUM($H$5:H17)-SUM($K$5:K17)</f>
+        <v>165</v>
+      </c>
+      <c r="O17" s="19">
+        <f>MAX(F17,0)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18">
+        <v>30</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="E18" s="19">
+        <f>$A$5+SUM($B$5:B18)-SUM($C$5:C18)</f>
+        <v>175</v>
+      </c>
+      <c r="F18" s="19">
+        <f>+E18-M18</f>
+        <v>40</v>
+      </c>
+      <c r="G18" s="19" t="str">
+        <f>IF(H18="","","P"&amp;COUNTA($H$5:H18))</f>
+        <v/>
+      </c>
+      <c r="H18" s="18"/>
+      <c r="I18" s="19">
+        <f>IF(F17&lt;=0,0,IF(H18=0,0,MAX(0,MIN(F17,H18))))</f>
         <v>0</v>
       </c>
-      <c r="I11" s="21">
-        <f>SUM($G$4:G11)-SUM($H$4:H11)</f>
-        <v>135</v>
-      </c>
-      <c r="J11" s="21">
-        <f t="shared" si="1"/>
+      <c r="J18" s="19">
+        <f>IF(H18=0,0,H18-I18)</f>
         <v>0</v>
       </c>
-      <c r="K11" s="21">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="L11" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N11" s="21">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20">
-        <v>40</v>
-      </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="21">
-        <f>$A$4+SUM($B$4:B12)-SUM($C$4:C12)</f>
-        <v>175</v>
-      </c>
-      <c r="F12" s="21" t="str">
-        <f>IF(G12="","","P"&amp;COUNTA($G$4:G12))</f>
-        <v/>
-      </c>
-      <c r="G12" s="20"/>
-      <c r="H12" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="21">
-        <f>SUM($G$4:G12)-SUM($H$4:H12)</f>
-        <v>135</v>
-      </c>
-      <c r="J12" s="21">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="K12" s="21">
-        <f t="shared" si="2"/>
-        <v>175</v>
-      </c>
-      <c r="L12" s="21">
-        <f t="shared" si="3"/>
-        <v>-175</v>
-      </c>
-      <c r="N12" s="21">
-        <f t="shared" si="4"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="21">
-        <f>$A$4+SUM($B$4:B13)-SUM($C$4:C13)</f>
-        <v>175</v>
-      </c>
-      <c r="F13" s="21" t="str">
-        <f>IF(G13="","","P"&amp;COUNTA($G$4:G13))</f>
-        <v>P6</v>
-      </c>
-      <c r="G13" s="20">
-        <v>20</v>
-      </c>
-      <c r="H13" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="21">
-        <f>SUM($G$4:G13)-SUM($H$4:H13)</f>
-        <v>155</v>
-      </c>
-      <c r="J13" s="21">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="K13" s="21">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="L13" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N13" s="21">
-        <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20">
-        <v>30</v>
-      </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="21">
-        <f>$A$4+SUM($B$4:B14)-SUM($C$4:C14)</f>
-        <v>205</v>
-      </c>
-      <c r="F14" s="21" t="str">
-        <f>IF(G14="","","P"&amp;COUNTA($G$4:G14))</f>
-        <v/>
-      </c>
-      <c r="G14" s="20"/>
-      <c r="H14" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="21">
-        <f>SUM($G$4:G14)-SUM($H$4:H14)</f>
-        <v>155</v>
-      </c>
-      <c r="J14" s="21">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="K14" s="21">
-        <f t="shared" si="2"/>
-        <v>205</v>
-      </c>
-      <c r="L14" s="21">
-        <f t="shared" si="3"/>
-        <v>-205</v>
-      </c>
-      <c r="N14" s="21">
-        <f t="shared" si="4"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="20"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="21">
-        <f>$A$4+SUM($B$4:B15)-SUM($C$4:C15)</f>
-        <v>205</v>
-      </c>
-      <c r="F15" s="21" t="str">
-        <f>IF(G15="","","P"&amp;COUNTA($G$4:G15))</f>
-        <v>P7</v>
-      </c>
-      <c r="G15" s="20">
-        <v>10</v>
-      </c>
-      <c r="H15" s="21">
-        <f t="shared" ref="H15" si="5">+C15</f>
-        <v>0</v>
-      </c>
-      <c r="I15" s="21">
-        <f>SUM($G$4:G15)-SUM($H$4:H15)</f>
-        <v>165</v>
-      </c>
-      <c r="J15" s="21">
-        <f t="shared" ref="J15" si="6">+E15-I15</f>
-        <v>40</v>
-      </c>
-      <c r="K15" s="21">
-        <f t="shared" ref="K15" si="7">IF(J15&lt;0,0,MIN(E15,G15))</f>
-        <v>10</v>
-      </c>
-      <c r="L15" s="21">
-        <f t="shared" ref="L15" si="8">+G15-K15</f>
-        <v>0</v>
-      </c>
-      <c r="N15" s="21">
-        <f t="shared" ref="N15" si="9">MAX(J15,0)</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20">
-        <v>30</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="E16" s="21">
-        <f>$A$4+SUM($B$4:B16)-SUM($C$4:C16)</f>
-        <v>175</v>
-      </c>
-      <c r="F16" s="21" t="str">
-        <f>IF(G16="","","P"&amp;COUNTA($G$4:G16))</f>
-        <v/>
-      </c>
-      <c r="G16" s="20"/>
-      <c r="H16" s="21">
+      <c r="K18" s="19">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="I16" s="21">
-        <f>SUM($G$4:G16)-SUM($H$4:H16)</f>
+      <c r="L18" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>P1</v>
+      </c>
+      <c r="M18" s="19">
+        <f>SUM($H$5:H18)-SUM($K$5:K18)</f>
         <v>135</v>
       </c>
-      <c r="J16" s="21">
-        <f t="shared" si="1"/>
+      <c r="O18" s="19">
+        <f>MAX(F18,0)</f>
         <v>40</v>
       </c>
-      <c r="K16" s="21">
-        <f t="shared" si="2"/>
-        <v>175</v>
-      </c>
-      <c r="L16" s="21">
-        <f t="shared" si="3"/>
-        <v>-175</v>
-      </c>
-      <c r="N16" s="21">
-        <f t="shared" si="4"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18">
         <v>40</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20">
+      <c r="D19" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="E19" s="19">
+        <f>$A$5+SUM($B$5:B19)-SUM($C$5:C19)</f>
+        <v>135</v>
+      </c>
+      <c r="F19" s="19">
+        <f>+E19-M19</f>
         <v>40</v>
       </c>
-      <c r="D17" s="20" t="s">
-        <v>191</v>
-      </c>
-      <c r="E17" s="21">
-        <f>$A$4+SUM($B$4:B17)-SUM($C$4:C17)</f>
-        <v>135</v>
-      </c>
-      <c r="F17" s="21" t="str">
-        <f>IF(G17="","","P"&amp;COUNTA($G$4:G17))</f>
+      <c r="G19" s="19" t="str">
+        <f>IF(H19="","","P"&amp;COUNTA($H$5:H19))</f>
         <v/>
       </c>
-      <c r="G17" s="20"/>
-      <c r="H17" s="21">
+      <c r="H19" s="18"/>
+      <c r="I19" s="19">
+        <f>IF(F18&lt;=0,0,IF(H19=0,0,MAX(0,MIN(F18,H19))))</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="19">
+        <f>IF(H19=0,0,H19-I19)</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="19">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="I17" s="21">
-        <f>SUM($G$4:G17)-SUM($H$4:H17)</f>
+      <c r="L19" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>P2</v>
+      </c>
+      <c r="M19" s="19">
+        <f>SUM($H$5:H19)-SUM($K$5:K19)</f>
         <v>95</v>
       </c>
-      <c r="J17" s="21">
-        <f t="shared" si="1"/>
+      <c r="O19" s="19">
+        <f>MAX(F19,0)</f>
         <v>40</v>
       </c>
-      <c r="K17" s="21">
-        <f t="shared" si="2"/>
-        <v>135</v>
-      </c>
-      <c r="L17" s="21">
-        <f t="shared" si="3"/>
-        <v>-135</v>
-      </c>
-      <c r="N17" s="21">
-        <f t="shared" si="4"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18">
+        <v>60</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="E20" s="19">
+        <f>$A$5+SUM($B$5:B20)-SUM($C$5:C20)</f>
+        <v>75</v>
+      </c>
+      <c r="F20" s="19">
+        <f>+E20-M20</f>
         <v>40</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20">
-        <v>60</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>192</v>
-      </c>
-      <c r="E18" s="21">
-        <f>$A$4+SUM($B$4:B18)-SUM($C$4:C18)</f>
-        <v>75</v>
-      </c>
-      <c r="F18" s="21" t="str">
-        <f>IF(G18="","","P"&amp;COUNTA($G$4:G18))</f>
+      <c r="G20" s="19" t="str">
+        <f>IF(H20="","","P"&amp;COUNTA($H$5:H20))</f>
         <v/>
       </c>
-      <c r="G18" s="20"/>
-      <c r="H18" s="21">
+      <c r="H20" s="18"/>
+      <c r="I20" s="19">
+        <f>IF(F19&lt;=0,0,IF(H20=0,0,MAX(0,MIN(F19,H20))))</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="19">
+        <f>IF(H20=0,0,H20-I20)</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="19">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="I18" s="21">
-        <f>SUM($G$4:G18)-SUM($H$4:H18)</f>
+      <c r="L20" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>P4</v>
+      </c>
+      <c r="M20" s="19">
+        <f>SUM($H$5:H20)-SUM($K$5:K20)</f>
         <v>35</v>
       </c>
-      <c r="J18" s="21">
-        <f t="shared" si="1"/>
+      <c r="O20" s="19">
+        <f>MAX(F20,0)</f>
         <v>40</v>
       </c>
-      <c r="K18" s="21">
-        <f t="shared" si="2"/>
-        <v>75</v>
-      </c>
-      <c r="L18" s="21">
-        <f t="shared" si="3"/>
-        <v>-75</v>
-      </c>
-      <c r="N18" s="21">
-        <f t="shared" si="4"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18">
+        <v>5</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="E21" s="19">
+        <f>$A$5+SUM($B$5:B21)-SUM($C$5:C21)</f>
+        <v>70</v>
+      </c>
+      <c r="F21" s="19">
+        <f>+E21-M21</f>
         <v>40</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20">
-        <v>5</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="E19" s="21">
-        <f>$A$4+SUM($B$4:B19)-SUM($C$4:C19)</f>
-        <v>70</v>
-      </c>
-      <c r="F19" s="21" t="str">
-        <f>IF(G19="","","P"&amp;COUNTA($G$4:G19))</f>
+      <c r="G21" s="19" t="str">
+        <f>IF(H21="","","P"&amp;COUNTA($H$5:H21))</f>
         <v/>
       </c>
-      <c r="G19" s="20"/>
-      <c r="H19" s="21">
+      <c r="H21" s="18"/>
+      <c r="I21" s="19">
+        <f>IF(F20&lt;=0,0,IF(H21=0,0,MAX(0,MIN(F20,H21))))</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="19">
+        <f>IF(H21=0,0,H21-I21)</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="19">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I19" s="21">
-        <f>SUM($G$4:G19)-SUM($H$4:H19)</f>
+      <c r="L21" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>P5</v>
+      </c>
+      <c r="M21" s="19">
+        <f>SUM($H$5:H21)-SUM($K$5:K21)</f>
         <v>30</v>
       </c>
-      <c r="J19" s="21">
-        <f t="shared" si="1"/>
+      <c r="O21" s="19">
+        <f>MAX(F21,0)</f>
         <v>40</v>
       </c>
-      <c r="K19" s="21">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-      <c r="L19" s="21">
-        <f t="shared" si="3"/>
-        <v>-70</v>
-      </c>
-      <c r="N19" s="21">
-        <f t="shared" si="4"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18">
+        <v>20</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="E22" s="19">
+        <f>$A$5+SUM($B$5:B22)-SUM($C$5:C22)</f>
+        <v>50</v>
+      </c>
+      <c r="F22" s="19">
+        <f>+E22-M22</f>
         <v>40</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20">
-        <v>20</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="E20" s="21">
-        <f>$A$4+SUM($B$4:B20)-SUM($C$4:C20)</f>
-        <v>50</v>
-      </c>
-      <c r="F20" s="21" t="str">
-        <f>IF(G20="","","P"&amp;COUNTA($G$4:G20))</f>
+      <c r="G22" s="19" t="str">
+        <f>IF(H22="","","P"&amp;COUNTA($H$5:H22))</f>
         <v/>
       </c>
-      <c r="G20" s="20"/>
-      <c r="H20" s="21">
+      <c r="H22" s="18"/>
+      <c r="I22" s="19">
+        <f>IF(F21&lt;=0,0,IF(H22=0,0,MAX(0,MIN(F21,H22))))</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="19">
+        <f>IF(H22=0,0,H22-I22)</f>
+        <v>0</v>
+      </c>
+      <c r="K22" s="19">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="I20" s="21">
-        <f>SUM($G$4:G20)-SUM($H$4:H20)</f>
+      <c r="L22" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>P6</v>
+      </c>
+      <c r="M22" s="19">
+        <f>SUM($H$5:H22)-SUM($K$5:K22)</f>
         <v>10</v>
       </c>
-      <c r="J20" s="21">
+      <c r="O22" s="19">
+        <f>MAX(F22,0)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18">
+        <v>10</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="E23" s="19">
+        <f>$A$5+SUM($B$5:B23)-SUM($C$5:C23)</f>
+        <v>40</v>
+      </c>
+      <c r="F23" s="19">
+        <f>+E23-M23</f>
+        <v>40</v>
+      </c>
+      <c r="G23" s="19" t="str">
+        <f>IF(H23="","","P"&amp;COUNTA($H$5:H23))</f>
+        <v/>
+      </c>
+      <c r="H23" s="18"/>
+      <c r="I23" s="19">
+        <f>IF(F22&lt;=0,0,IF(H23=0,0,MAX(0,MIN(F22,H23))))</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="19">
+        <f>IF(H23=0,0,H23-I23)</f>
+        <v>0</v>
+      </c>
+      <c r="K23" s="19">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="L23" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="K20" s="21">
-        <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="L20" s="21">
-        <f t="shared" si="3"/>
-        <v>-50</v>
-      </c>
-      <c r="N20" s="21">
-        <f t="shared" si="4"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20">
-        <v>10</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="E21" s="21">
-        <f>$A$4+SUM($B$4:B21)-SUM($C$4:C21)</f>
-        <v>40</v>
-      </c>
-      <c r="F21" s="21" t="str">
-        <f>IF(G21="","","P"&amp;COUNTA($G$4:G21))</f>
-        <v/>
-      </c>
-      <c r="G21" s="20"/>
-      <c r="H21" s="21">
-        <f t="shared" ref="H21" si="10">+C21</f>
-        <v>10</v>
-      </c>
-      <c r="I21" s="21">
-        <f>SUM($G$4:G21)-SUM($H$4:H21)</f>
+        <v>P7</v>
+      </c>
+      <c r="M23" s="19">
+        <f>SUM($H$5:H23)-SUM($K$5:K23)</f>
         <v>0</v>
       </c>
-      <c r="J21" s="21">
-        <f t="shared" ref="J21" si="11">+E21-I21</f>
-        <v>40</v>
-      </c>
-      <c r="K21" s="21">
-        <f t="shared" ref="K21" si="12">IF(J21&lt;0,0,MIN(E21,G21))</f>
-        <v>40</v>
-      </c>
-      <c r="L21" s="21">
-        <f t="shared" ref="L21" si="13">+G21-K21</f>
-        <v>-40</v>
-      </c>
-      <c r="N21" s="21">
-        <f t="shared" ref="N21" si="14">MAX(J21,0)</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="20"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="21">
-        <f>$A$4+SUM($B$4:B22)-SUM($C$4:C22)</f>
-        <v>40</v>
-      </c>
-      <c r="F22" s="21" t="str">
-        <f>IF(G22="","","P"&amp;COUNTA($G$4:G22))</f>
-        <v/>
-      </c>
-      <c r="G22" s="20"/>
-      <c r="H22" s="21">
-        <f t="shared" ref="H22" si="15">+C22</f>
-        <v>0</v>
-      </c>
-      <c r="I22" s="21">
-        <f>SUM($G$4:G22)-SUM($H$4:H22)</f>
-        <v>0</v>
-      </c>
-      <c r="J22" s="21">
-        <f t="shared" ref="J22" si="16">+E22-I22</f>
-        <v>40</v>
-      </c>
-      <c r="K22" s="21">
-        <f t="shared" ref="K22" si="17">IF(J22&lt;0,0,MIN(E22,G22))</f>
-        <v>40</v>
-      </c>
-      <c r="L22" s="21">
-        <f t="shared" ref="L22" si="18">+G22-K22</f>
-        <v>-40</v>
-      </c>
-      <c r="N22" s="21">
-        <f t="shared" ref="N22" si="19">MAX(J22,0)</f>
+      <c r="O23" s="19">
+        <f>MAX(F23,0)</f>
         <v>40</v>
       </c>
     </row>
@@ -5173,7 +5376,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:D28"/>
   <sheetViews>
@@ -5184,14 +5387,14 @@
       <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="44.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="44.33203125" style="2" customWidth="1"/>
     <col min="2" max="4" width="73" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -5205,7 +5408,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="112.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="108" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>57</v>
       </c>
@@ -5217,7 +5420,7 @@
       </c>
       <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="1:4" ht="238.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="238.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
@@ -5231,7 +5434,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="259.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="259.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>52</v>
       </c>
@@ -5243,7 +5446,7 @@
       </c>
       <c r="D4" s="5"/>
     </row>
-    <row r="5" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="54" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>0</v>
       </c>
@@ -5257,7 +5460,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="131.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="126" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>14</v>
       </c>
@@ -5271,7 +5474,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="54" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>1</v>
       </c>
@@ -5285,7 +5488,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="168.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="144" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
@@ -5299,7 +5502,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="72" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>15</v>
       </c>
@@ -5313,7 +5516,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="72" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>18</v>
       </c>
@@ -5327,7 +5530,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="131.25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="126" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>31</v>
       </c>
@@ -5341,7 +5544,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="54" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>32</v>
       </c>
@@ -5355,7 +5558,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>33</v>
       </c>
@@ -5363,7 +5566,7 @@
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="36" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>40</v>
       </c>
@@ -5375,7 +5578,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>54</v>
       </c>
@@ -5383,7 +5586,7 @@
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>3</v>
       </c>
@@ -5397,7 +5600,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -5405,7 +5608,7 @@
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
     </row>
-    <row r="18" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>11</v>
       </c>
@@ -5413,7 +5616,7 @@
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>10</v>
       </c>
@@ -5421,7 +5624,7 @@
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>9</v>
       </c>
@@ -5429,7 +5632,7 @@
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>8</v>
       </c>
@@ -5437,7 +5640,7 @@
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>4</v>
       </c>
@@ -5445,7 +5648,7 @@
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>47</v>
       </c>
@@ -5453,7 +5656,7 @@
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>5</v>
       </c>
@@ -5467,7 +5670,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>6</v>
       </c>
@@ -5475,7 +5678,7 @@
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
     </row>
-    <row r="26" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>7</v>
       </c>
@@ -5483,7 +5686,7 @@
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>20</v>
       </c>
@@ -5497,7 +5700,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>19</v>
       </c>

--- a/PY19_ERP_TAG_THUONG_MAI/documents/TIMELINE_TONG_HOP_HUONG_DAN_NGHIEP_VU.xlsx
+++ b/PY19_ERP_TAG_THUONG_MAI/documents/TIMELINE_TONG_HOP_HUONG_DAN_NGHIEP_VU.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\Github\PYTHON_MINI_PROJECTS\PY19_ERP_TAG_THUONG_MAI\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\ICONS\GITHUB\PYTHON_MINI_PROJECTS\PY19_ERP_TAG_THUONG_MAI\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{309BC8B0-5872-4EA0-B64C-67629A616318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="DANH_SACH_NGHIEP_VU_SAN_XUAT" sheetId="4" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">DANH_SACH_NGHIEP_VU_SAN_XUAT!$2:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">DANH_SACH_NGHIEP_VU_THUONG_MAI!$2:$2</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="162913" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,8 +41,33 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>ADMIN</author>
+  </authors>
+  <commentList>
+    <comment ref="N4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nếu xuất kho nhiều hơn số lượng yêu cầu ==&gt; cảnh báo, nhưng 
+vẫn cho xuất</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="201">
   <si>
     <t>Bán hàng - Không xuất hóa đơn</t>
   </si>
@@ -1319,9 +1343,6 @@
     <t>SL quyết toán</t>
   </si>
   <si>
-    <t>SL nhu cầu chưa quyết toán</t>
-  </si>
-  <si>
     <t>Số phiếu yêu cầu</t>
   </si>
   <si>
@@ -1361,17 +1382,23 @@
     <t>BẢNG YÊU CẦU ĐẶT HÀNG</t>
   </si>
   <si>
-    <t>BẢNG GIỮ CHỖ</t>
+    <t>Tổng SL nhu cầu chưa quyết toán</t>
+  </si>
+  <si>
+    <t>SL còn phải quyết toán của phiếu</t>
+  </si>
+  <si>
+    <t>BẢNG GIỮ CHỖ - VIEW</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;Tỷ lệ hoàn thành tổng:&quot;\ 00%"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1455,6 +1482,13 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="11">
@@ -1565,7 +1599,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1618,9 +1652,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1634,6 +1665,10 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Accent5" xfId="1" builtinId="45"/>
@@ -1641,7 +1676,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -2016,7 +2059,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -2027,29 +2070,29 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" outlineLevelRow="2" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" outlineLevelRow="2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="69.88671875" style="10" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="37.5546875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="22.88671875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="31.88671875" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="69.85546875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="37.5703125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="31.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="57" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:5" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
       <c r="E1" s="17">
         <f>AVERAGE(E3,E67,E85,E115)</f>
         <v>0.39686363636363636</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>79</v>
       </c>
@@ -2066,7 +2109,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>133</v>
       </c>
@@ -2080,7 +2123,7 @@
         <v>0.44045454545454549</v>
       </c>
     </row>
-    <row r="4" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>59</v>
       </c>
@@ -2096,7 +2139,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="5" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>60</v>
       </c>
@@ -2107,7 +2150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="54" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="56.25" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>115</v>
       </c>
@@ -2121,7 +2164,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>89</v>
       </c>
@@ -2135,7 +2178,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>87</v>
       </c>
@@ -2146,7 +2189,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>88</v>
       </c>
@@ -2157,7 +2200,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>94</v>
       </c>
@@ -2173,7 +2216,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="11" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>60</v>
       </c>
@@ -2184,7 +2227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="54" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="56.25" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>115</v>
       </c>
@@ -2198,7 +2241,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>93</v>
       </c>
@@ -2212,7 +2255,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>87</v>
       </c>
@@ -2223,7 +2266,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>88</v>
       </c>
@@ -2234,7 +2277,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>86</v>
       </c>
@@ -2250,7 +2293,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="17" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>60</v>
       </c>
@@ -2261,7 +2304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="54" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="56.25" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>115</v>
       </c>
@@ -2275,7 +2318,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>93</v>
       </c>
@@ -2289,7 +2332,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>87</v>
       </c>
@@ -2300,7 +2343,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="21" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>88</v>
       </c>
@@ -2311,7 +2354,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>95</v>
       </c>
@@ -2327,7 +2370,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="23" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>60</v>
       </c>
@@ -2338,7 +2381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="54" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="56.25" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>115</v>
       </c>
@@ -2352,7 +2395,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>93</v>
       </c>
@@ -2366,7 +2409,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="26" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>87</v>
       </c>
@@ -2377,7 +2420,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="27" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>88</v>
       </c>
@@ -2388,7 +2431,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
         <v>96</v>
       </c>
@@ -2404,7 +2447,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="29" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
         <v>60</v>
       </c>
@@ -2415,7 +2458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="54" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="56.25" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>115</v>
       </c>
@@ -2429,7 +2472,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="31" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
         <v>93</v>
       </c>
@@ -2443,7 +2486,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="32" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
         <v>87</v>
       </c>
@@ -2454,7 +2497,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="33" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
         <v>88</v>
       </c>
@@ -2465,7 +2508,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
         <v>97</v>
       </c>
@@ -2481,7 +2524,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="35" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
         <v>60</v>
       </c>
@@ -2492,7 +2535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="54" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" ht="56.25" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
         <v>115</v>
       </c>
@@ -2506,7 +2549,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
         <v>93</v>
       </c>
@@ -2520,7 +2563,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="38" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
         <v>87</v>
       </c>
@@ -2531,7 +2574,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="39" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
         <v>88</v>
       </c>
@@ -2542,7 +2585,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
         <v>98</v>
       </c>
@@ -2558,7 +2601,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="41" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
         <v>60</v>
       </c>
@@ -2569,7 +2612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="54" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" ht="56.25" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
         <v>115</v>
       </c>
@@ -2583,7 +2626,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="43" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
         <v>93</v>
       </c>
@@ -2597,7 +2640,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="44" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
         <v>87</v>
       </c>
@@ -2608,7 +2651,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="45" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
         <v>88</v>
       </c>
@@ -2619,7 +2662,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="46" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
         <v>99</v>
       </c>
@@ -2635,7 +2678,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="47" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
         <v>60</v>
       </c>
@@ -2646,7 +2689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="54" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" ht="56.25" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
         <v>115</v>
       </c>
@@ -2660,7 +2703,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="49" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
         <v>93</v>
       </c>
@@ -2674,7 +2717,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="50" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
         <v>87</v>
       </c>
@@ -2685,7 +2728,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="51" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A51" s="10" t="s">
         <v>88</v>
       </c>
@@ -2696,7 +2739,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="52" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
         <v>108</v>
       </c>
@@ -2712,7 +2755,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="53" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A53" s="10" t="s">
         <v>60</v>
       </c>
@@ -2723,7 +2766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="54" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" ht="56.25" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
         <v>115</v>
       </c>
@@ -2737,7 +2780,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="55" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A55" s="10" t="s">
         <v>93</v>
       </c>
@@ -2751,7 +2794,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="56" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A56" s="10" t="s">
         <v>87</v>
       </c>
@@ -2762,7 +2805,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="57" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A57" s="10" t="s">
         <v>88</v>
       </c>
@@ -2773,7 +2816,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="58" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A58" s="8" t="s">
         <v>109</v>
       </c>
@@ -2789,7 +2832,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A59" s="10" t="s">
         <v>110</v>
       </c>
@@ -2803,7 +2846,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="60" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
         <v>111</v>
       </c>
@@ -2817,7 +2860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A61" s="8" t="s">
         <v>120</v>
       </c>
@@ -2831,7 +2874,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="62" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A62" s="10" t="s">
         <v>116</v>
       </c>
@@ -2842,7 +2885,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="126" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" ht="131.25" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A63" s="9" t="s">
         <v>119</v>
       </c>
@@ -2853,7 +2896,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="64" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A64" s="10" t="s">
         <v>117</v>
       </c>
@@ -2864,7 +2907,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="65" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A65" s="10" t="s">
         <v>118</v>
       </c>
@@ -2875,7 +2918,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="66" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A66" s="10" t="s">
         <v>118</v>
       </c>
@@ -2886,7 +2929,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="14" t="s">
         <v>134</v>
       </c>
@@ -2900,7 +2943,7 @@
         <v>0.39128571428571429</v>
       </c>
     </row>
-    <row r="68" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A68" s="8" t="s">
         <v>123</v>
       </c>
@@ -2916,7 +2959,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="69" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A69" s="10" t="s">
         <v>60</v>
       </c>
@@ -2927,7 +2970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="54" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" ht="56.25" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A70" s="9" t="s">
         <v>115</v>
       </c>
@@ -2941,7 +2984,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="71" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A71" s="10" t="s">
         <v>89</v>
       </c>
@@ -2955,7 +2998,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="72" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A72" s="10" t="s">
         <v>87</v>
       </c>
@@ -2966,7 +3009,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="73" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A73" s="10" t="s">
         <v>88</v>
       </c>
@@ -2977,7 +3020,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="74" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A74" s="8" t="s">
         <v>97</v>
       </c>
@@ -2993,7 +3036,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="75" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A75" s="10" t="s">
         <v>60</v>
       </c>
@@ -3004,7 +3047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="54" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" ht="56.25" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A76" s="9" t="s">
         <v>115</v>
       </c>
@@ -3018,7 +3061,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="77" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A77" s="10" t="s">
         <v>93</v>
       </c>
@@ -3032,7 +3075,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="78" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A78" s="10" t="s">
         <v>87</v>
       </c>
@@ -3043,7 +3086,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="79" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A79" s="10" t="s">
         <v>88</v>
       </c>
@@ -3054,7 +3097,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="80" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A80" s="8" t="s">
         <v>128</v>
       </c>
@@ -3070,7 +3113,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A81" s="10" t="s">
         <v>110</v>
       </c>
@@ -3084,7 +3127,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="82" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A82" s="10" t="s">
         <v>111</v>
       </c>
@@ -3098,7 +3141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A83" s="8" t="s">
         <v>120</v>
       </c>
@@ -3112,7 +3155,7 @@
         <v>0.58014285714285718</v>
       </c>
     </row>
-    <row r="84" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A84" s="10" t="s">
         <v>132</v>
       </c>
@@ -3123,7 +3166,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="14" t="s">
         <v>135</v>
       </c>
@@ -3137,7 +3180,7 @@
         <v>0.42071428571428571</v>
       </c>
     </row>
-    <row r="86" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A86" s="8" t="s">
         <v>86</v>
       </c>
@@ -3153,7 +3196,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="87" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A87" s="10" t="s">
         <v>60</v>
       </c>
@@ -3164,7 +3207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="54" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" ht="56.25" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A88" s="9" t="s">
         <v>115</v>
       </c>
@@ -3178,7 +3221,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="89" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A89" s="10" t="s">
         <v>89</v>
       </c>
@@ -3192,7 +3235,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="90" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A90" s="10" t="s">
         <v>87</v>
       </c>
@@ -3203,7 +3246,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="91" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A91" s="10" t="s">
         <v>88</v>
       </c>
@@ -3214,7 +3257,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="92" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A92" s="8" t="s">
         <v>139</v>
       </c>
@@ -3230,7 +3273,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="93" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A93" s="10" t="s">
         <v>60</v>
       </c>
@@ -3241,7 +3284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="54" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" ht="56.25" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A94" s="9" t="s">
         <v>115</v>
       </c>
@@ -3255,7 +3298,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="95" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A95" s="10" t="s">
         <v>89</v>
       </c>
@@ -3269,7 +3312,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="96" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A96" s="10" t="s">
         <v>87</v>
       </c>
@@ -3280,7 +3323,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="97" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A97" s="10" t="s">
         <v>88</v>
       </c>
@@ -3291,7 +3334,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="98" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A98" s="8" t="s">
         <v>143</v>
       </c>
@@ -3307,7 +3350,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="99" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A99" s="10" t="s">
         <v>60</v>
       </c>
@@ -3318,7 +3361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="54" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" ht="56.25" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A100" s="9" t="s">
         <v>115</v>
       </c>
@@ -3332,7 +3375,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="101" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A101" s="10" t="s">
         <v>89</v>
       </c>
@@ -3346,7 +3389,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="102" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A102" s="10" t="s">
         <v>87</v>
       </c>
@@ -3357,7 +3400,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="103" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A103" s="10" t="s">
         <v>88</v>
       </c>
@@ -3368,7 +3411,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="104" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A104" s="8" t="s">
         <v>95</v>
       </c>
@@ -3384,7 +3427,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="105" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A105" s="10" t="s">
         <v>60</v>
       </c>
@@ -3395,7 +3438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="54" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" ht="56.25" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A106" s="9" t="s">
         <v>115</v>
       </c>
@@ -3409,7 +3452,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="107" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A107" s="10" t="s">
         <v>89</v>
       </c>
@@ -3423,7 +3466,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="108" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A108" s="10" t="s">
         <v>87</v>
       </c>
@@ -3434,7 +3477,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="109" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A109" s="10" t="s">
         <v>88</v>
       </c>
@@ -3445,7 +3488,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="110" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A110" s="8" t="s">
         <v>151</v>
       </c>
@@ -3461,7 +3504,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A111" s="10" t="s">
         <v>110</v>
       </c>
@@ -3475,7 +3518,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="112" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A112" s="10" t="s">
         <v>111</v>
       </c>
@@ -3489,7 +3532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A113" s="8" t="s">
         <v>120</v>
       </c>
@@ -3503,7 +3546,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="114" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A114" s="10" t="s">
         <v>155</v>
       </c>
@@ -3514,7 +3557,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="14" t="s">
         <v>156</v>
       </c>
@@ -3528,7 +3571,7 @@
         <v>0.33499999999999996</v>
       </c>
     </row>
-    <row r="116" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A116" s="8" t="s">
         <v>143</v>
       </c>
@@ -3544,7 +3587,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="117" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A117" s="10" t="s">
         <v>60</v>
       </c>
@@ -3555,7 +3598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="54" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:5" ht="56.25" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A118" s="9" t="s">
         <v>115</v>
       </c>
@@ -3569,7 +3612,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="119" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A119" s="10" t="s">
         <v>89</v>
       </c>
@@ -3583,7 +3626,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="120" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A120" s="10" t="s">
         <v>87</v>
       </c>
@@ -3594,7 +3637,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="121" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A121" s="10" t="s">
         <v>88</v>
       </c>
@@ -3605,7 +3648,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="122" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A122" s="8" t="s">
         <v>151</v>
       </c>
@@ -3621,7 +3664,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A123" s="10" t="s">
         <v>110</v>
       </c>
@@ -3635,7 +3678,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="124" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A124" s="10" t="s">
         <v>111</v>
       </c>
@@ -3649,7 +3692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A125" s="8" t="s">
         <v>120</v>
       </c>
@@ -3663,7 +3706,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="126" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A126" s="10" t="s">
         <v>155</v>
       </c>
@@ -3675,7 +3718,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:E21" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:E21"/>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
@@ -3688,7 +3731,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8" tint="0.39997558519241921"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -3699,29 +3742,29 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" outlineLevelRow="2" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" outlineLevelRow="2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="69.88671875" style="10" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="37.5546875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="22.88671875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="31.88671875" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="69.85546875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="37.5703125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="31.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="57" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:5" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="29" t="s">
         <v>173</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
       <c r="E1" s="17">
         <f>AVERAGE(E3,E34)</f>
         <v>0.38937499999999997</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>79</v>
       </c>
@@ -3738,7 +3781,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>133</v>
       </c>
@@ -3752,7 +3795,7 @@
         <v>0.40749999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:5" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>166</v>
       </c>
@@ -3768,7 +3811,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>60</v>
       </c>
@@ -3779,7 +3822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="54" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="56.25" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>115</v>
       </c>
@@ -3793,7 +3836,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>93</v>
       </c>
@@ -3807,7 +3850,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>87</v>
       </c>
@@ -3818,7 +3861,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>88</v>
       </c>
@@ -3829,7 +3872,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>163</v>
       </c>
@@ -3845,7 +3888,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>60</v>
       </c>
@@ -3856,7 +3899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="54" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="56.25" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>115</v>
       </c>
@@ -3870,7 +3913,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>93</v>
       </c>
@@ -3884,7 +3927,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>87</v>
       </c>
@@ -3895,7 +3938,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>88</v>
       </c>
@@ -3906,7 +3949,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>59</v>
       </c>
@@ -3922,7 +3965,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>60</v>
       </c>
@@ -3933,7 +3976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="54" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="56.25" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>115</v>
       </c>
@@ -3947,7 +3990,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>93</v>
       </c>
@@ -3961,7 +4004,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>87</v>
       </c>
@@ -3972,7 +4015,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="21" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>88</v>
       </c>
@@ -3983,7 +4026,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>164</v>
       </c>
@@ -3999,7 +4042,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>60</v>
       </c>
@@ -4010,7 +4053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="54" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="56.25" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>115</v>
       </c>
@@ -4024,7 +4067,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>93</v>
       </c>
@@ -4038,7 +4081,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="26" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>87</v>
       </c>
@@ -4049,7 +4092,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="27" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>88</v>
       </c>
@@ -4060,7 +4103,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
         <v>109</v>
       </c>
@@ -4076,7 +4119,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
         <v>110</v>
       </c>
@@ -4090,7 +4133,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="30" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
         <v>111</v>
       </c>
@@ -4104,7 +4147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
         <v>120</v>
       </c>
@@ -4118,7 +4161,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="32" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
         <v>165</v>
       </c>
@@ -4129,7 +4172,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="126" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" ht="131.25" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>119</v>
       </c>
@@ -4140,7 +4183,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="14" t="s">
         <v>167</v>
       </c>
@@ -4154,7 +4197,7 @@
         <v>0.37124999999999997</v>
       </c>
     </row>
-    <row r="35" spans="1:5" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
         <v>123</v>
       </c>
@@ -4170,7 +4213,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="36" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
         <v>60</v>
       </c>
@@ -4181,7 +4224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="54" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" ht="56.25" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
         <v>115</v>
       </c>
@@ -4195,7 +4238,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
         <v>89</v>
       </c>
@@ -4209,7 +4252,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="39" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
         <v>87</v>
       </c>
@@ -4220,7 +4263,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="40" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
         <v>88</v>
       </c>
@@ -4231,7 +4274,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
         <v>168</v>
       </c>
@@ -4247,7 +4290,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="42" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
         <v>60</v>
       </c>
@@ -4258,7 +4301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="54" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" ht="56.25" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
         <v>115</v>
       </c>
@@ -4272,7 +4315,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="44" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
         <v>93</v>
       </c>
@@ -4286,7 +4329,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="45" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
         <v>87</v>
       </c>
@@ -4297,7 +4340,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="46" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
         <v>88</v>
       </c>
@@ -4308,7 +4351,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="47" spans="1:5" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
         <v>169</v>
       </c>
@@ -4324,7 +4367,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
         <v>110</v>
       </c>
@@ -4338,7 +4381,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="49" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
         <v>111</v>
       </c>
@@ -4352,7 +4395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
         <v>120</v>
       </c>
@@ -4366,7 +4409,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="51" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A51" s="10" t="s">
         <v>170</v>
       </c>
@@ -4378,7 +4421,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:E21" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A2:E21"/>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
@@ -4391,88 +4434,95 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:U23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:V23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="13" width="8.5546875" customWidth="1"/>
-    <col min="15" max="15" width="9.5546875" customWidth="1"/>
+    <col min="1" max="12" width="8.5703125" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" customWidth="1"/>
+    <col min="16" max="16" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-    </row>
-    <row r="3" spans="1:21" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="24"/>
-    </row>
-    <row r="4" spans="1:21" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+    </row>
+    <row r="3" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="30"/>
+    </row>
+    <row r="4" spans="1:22" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="D4" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="E4" s="22" t="s">
+      <c r="D4" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="E4" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="G4" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="H4" s="21" t="s">
+      <c r="G4" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="H4" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="J4" s="21" t="s">
+      <c r="J4" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="K4" s="21" t="s">
+      <c r="K4" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="L4" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="M4" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="O4" s="21" t="s">
+      <c r="L4" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="M4" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="N4" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="P4" s="20" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
         <v>10</v>
       </c>
@@ -4484,7 +4534,7 @@
         <v>10</v>
       </c>
       <c r="F5" s="19">
-        <f>+E5-M5</f>
+        <f t="shared" ref="F5:F23" si="0">+E5-M5</f>
         <v>10</v>
       </c>
       <c r="G5" s="19" t="str">
@@ -4493,11 +4543,11 @@
       </c>
       <c r="H5" s="18"/>
       <c r="I5" s="19">
-        <f>IF(F4&lt;=0,0,IF(H5=0,0,MAX(0,MIN(F4,H5))))</f>
+        <f t="shared" ref="I5:I23" si="1">IF(F4&lt;=0,0,IF(H5=0,0,MAX(0,MIN(F4,H5))))</f>
         <v>0</v>
       </c>
       <c r="J5" s="19">
-        <f>IF(H5=0,0,H5-I5)</f>
+        <f t="shared" ref="J5:J23" si="2">IF(H5=0,0,H5-I5)</f>
         <v>0</v>
       </c>
       <c r="K5" s="19" t="str">
@@ -4512,12 +4562,16 @@
         <f>SUM($H$5:H5)-SUM($K$5:K5)</f>
         <v>0</v>
       </c>
-      <c r="O5" s="19">
-        <f>MAX(F5,0)</f>
+      <c r="N5" s="19">
+        <f>IF(G5="",0,H5-SUMIFS(K:K,L:L,G5))</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="19">
+        <f>MAX(F5,F5)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
@@ -4527,7 +4581,7 @@
         <v>10</v>
       </c>
       <c r="F6" s="19">
-        <f>+E6-M6</f>
+        <f t="shared" si="0"/>
         <v>-20</v>
       </c>
       <c r="G6" s="19" t="str">
@@ -4538,31 +4592,35 @@
         <v>30</v>
       </c>
       <c r="I6" s="19">
-        <f>IF(F5&lt;=0,0,IF(H6=0,0,MAX(0,MIN(F5,H6))))</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="J6" s="19">
-        <f>IF(H6=0,0,H6-I6)</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="K6" s="19" t="str">
-        <f t="shared" ref="K6:K23" si="0">IF(C6="","",C6)</f>
+        <f t="shared" ref="K6:K23" si="3">IF(C6="","",C6)</f>
         <v/>
       </c>
       <c r="L6" s="19" t="str">
-        <f t="shared" ref="L6:L23" si="1">IF(D6="","",D6)</f>
+        <f t="shared" ref="L6:L23" si="4">IF(D6="","",D6)</f>
         <v/>
       </c>
       <c r="M6" s="19">
         <f>SUM($H$5:H6)-SUM($K$5:K6)</f>
         <v>30</v>
       </c>
-      <c r="O6" s="19">
-        <f>MAX(F6,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+      <c r="N6" s="19">
+        <f>IF(G6="",0,H6-SUMIFS(K:K,L:L,G6))</f>
+        <v>15</v>
+      </c>
+      <c r="P6" s="19">
+        <f t="shared" ref="P6:P23" si="5">MAX(F6,F6)</f>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="18"/>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
@@ -4572,7 +4630,7 @@
         <v>10</v>
       </c>
       <c r="F7" s="19">
-        <f>+E7-M7</f>
+        <f t="shared" si="0"/>
         <v>-60</v>
       </c>
       <c r="G7" s="19" t="str">
@@ -4583,38 +4641,42 @@
         <v>40</v>
       </c>
       <c r="I7" s="19">
-        <f>IF(F6&lt;=0,0,IF(H7=0,0,MAX(0,MIN(F6,H7))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J7" s="19">
-        <f>IF(H7=0,0,H7-I7)</f>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="K7" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L7" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="M7" s="19">
         <f>SUM($H$5:H7)-SUM($K$5:K7)</f>
         <v>70</v>
       </c>
-      <c r="O7" s="19">
-        <f>MAX(F7,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="23" t="s">
-        <v>198</v>
-      </c>
-      <c r="R7" s="23"/>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23"/>
-      <c r="U7" s="23"/>
-    </row>
-    <row r="8" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+      <c r="N7" s="19">
+        <f t="shared" ref="N6:N23" si="6">IF(G7="",0,H7-SUMIFS(K:K,L:L,G7))</f>
+        <v>10</v>
+      </c>
+      <c r="P7" s="19">
+        <f t="shared" si="5"/>
+        <v>-60</v>
+      </c>
+      <c r="R7" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="22"/>
+    </row>
+    <row r="8" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="18"/>
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
@@ -4624,7 +4686,7 @@
         <v>10</v>
       </c>
       <c r="F8" s="19">
-        <f>+E8-M8</f>
+        <f t="shared" si="0"/>
         <v>-75</v>
       </c>
       <c r="G8" s="19" t="str">
@@ -4635,38 +4697,42 @@
         <v>15</v>
       </c>
       <c r="I8" s="19">
-        <f>IF(F7&lt;=0,0,IF(H8=0,0,MAX(0,MIN(F7,H8))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J8" s="19">
-        <f>IF(H8=0,0,H8-I8)</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="K8" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L8" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="M8" s="19">
         <f>SUM($H$5:H8)-SUM($K$5:K8)</f>
         <v>85</v>
       </c>
-      <c r="O8" s="19">
-        <f>MAX(F8,0)</f>
+      <c r="N8" s="19">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q8" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="28"/>
-      <c r="U8" s="28"/>
-    </row>
-    <row r="9" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+      <c r="P8" s="19">
+        <f t="shared" si="5"/>
+        <v>-75</v>
+      </c>
+      <c r="R8" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="S8" s="27"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="27"/>
+      <c r="V8" s="27"/>
+    </row>
+    <row r="9" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="18"/>
       <c r="B9" s="18">
         <v>60</v>
@@ -4678,7 +4744,7 @@
         <v>70</v>
       </c>
       <c r="F9" s="19">
-        <f>+E9-M9</f>
+        <f t="shared" si="0"/>
         <v>-15</v>
       </c>
       <c r="G9" s="19" t="str">
@@ -4687,52 +4753,56 @@
       </c>
       <c r="H9" s="18"/>
       <c r="I9" s="19">
-        <f>IF(F8&lt;=0,0,IF(H9=0,0,MAX(0,MIN(F8,H9))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J9" s="19">
-        <f>IF(H9=0,0,H9-I9)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K9" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L9" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="M9" s="19">
         <f>SUM($H$5:H9)-SUM($K$5:K9)</f>
         <v>85</v>
       </c>
-      <c r="O9" s="19">
-        <f>MAX(F9,0)</f>
+      <c r="N9" s="19">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q9" s="29" t="s">
-        <v>197</v>
-      </c>
-      <c r="R9" s="29"/>
-      <c r="S9" s="29"/>
-      <c r="T9" s="29"/>
-      <c r="U9" s="29"/>
-    </row>
-    <row r="10" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+      <c r="P9" s="19">
+        <f t="shared" si="5"/>
+        <v>-15</v>
+      </c>
+      <c r="R9" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="S9" s="28"/>
+      <c r="T9" s="28"/>
+      <c r="U9" s="28"/>
+      <c r="V9" s="28"/>
+    </row>
+    <row r="10" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="18"/>
       <c r="B10" s="18"/>
       <c r="C10" s="18">
         <v>15</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E10" s="19">
         <f>$A$5+SUM($B$5:B10)-SUM($C$5:C10)</f>
         <v>55</v>
       </c>
       <c r="F10" s="19">
-        <f>+E10-M10</f>
+        <f t="shared" si="0"/>
         <v>-15</v>
       </c>
       <c r="G10" s="19" t="str">
@@ -4741,38 +4811,42 @@
       </c>
       <c r="H10" s="18"/>
       <c r="I10" s="19">
-        <f>IF(F9&lt;=0,0,IF(H10=0,0,MAX(0,MIN(F9,H10))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J10" s="19">
-        <f>IF(H10=0,0,H10-I10)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K10" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="L10" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>P3</v>
       </c>
       <c r="M10" s="19">
         <f>SUM($H$5:H10)-SUM($K$5:K10)</f>
         <v>70</v>
       </c>
-      <c r="O10" s="19">
-        <f>MAX(F10,0)</f>
+      <c r="N10" s="19">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q10" s="27" t="s">
-        <v>195</v>
-      </c>
-      <c r="R10" s="27"/>
-      <c r="S10" s="27"/>
-      <c r="T10" s="27"/>
-      <c r="U10" s="27"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="P10" s="19">
+        <f t="shared" si="5"/>
+        <v>-15</v>
+      </c>
+      <c r="R10" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
@@ -4782,7 +4856,7 @@
         <v>55</v>
       </c>
       <c r="F11" s="19">
-        <f>+E11-M11</f>
+        <f t="shared" si="0"/>
         <v>-75</v>
       </c>
       <c r="G11" s="19" t="str">
@@ -4793,31 +4867,35 @@
         <v>60</v>
       </c>
       <c r="I11" s="19">
-        <f>IF(F10&lt;=0,0,IF(H11=0,0,MAX(0,MIN(F10,H11))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J11" s="19">
-        <f>IF(H11=0,0,H11-I11)</f>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="K11" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L11" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="M11" s="19">
         <f>SUM($H$5:H11)-SUM($K$5:K11)</f>
         <v>130</v>
       </c>
-      <c r="O11" s="19">
-        <f>MAX(F11,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="N11" s="19">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="P11" s="19">
+        <f t="shared" si="5"/>
+        <v>-75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
       <c r="B12" s="18">
         <v>80</v>
@@ -4829,7 +4907,7 @@
         <v>135</v>
       </c>
       <c r="F12" s="19">
-        <f>+E12-M12</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G12" s="19" t="str">
@@ -4838,31 +4916,35 @@
       </c>
       <c r="H12" s="18"/>
       <c r="I12" s="19">
-        <f>IF(F11&lt;=0,0,IF(H12=0,0,MAX(0,MIN(F11,H12))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J12" s="19">
-        <f>IF(H12=0,0,H12-I12)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K12" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L12" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="M12" s="19">
         <f>SUM($H$5:H12)-SUM($K$5:K12)</f>
         <v>130</v>
       </c>
-      <c r="O12" s="19">
-        <f>MAX(F12,0)</f>
+      <c r="N12" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="19">
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="18"/>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
@@ -4872,7 +4954,7 @@
         <v>135</v>
       </c>
       <c r="F13" s="19">
-        <f>+E13-M13</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G13" s="19" t="str">
@@ -4883,31 +4965,35 @@
         <v>5</v>
       </c>
       <c r="I13" s="19">
-        <f>IF(F12&lt;=0,0,IF(H13=0,0,MAX(0,MIN(F12,H13))))</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="J13" s="19">
-        <f>IF(H13=0,0,H13-I13)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K13" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L13" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="M13" s="19">
         <f>SUM($H$5:H13)-SUM($K$5:K13)</f>
         <v>135</v>
       </c>
-      <c r="O13" s="19">
-        <f>MAX(F13,0)</f>
+      <c r="N13" s="19">
+        <f t="shared" si="6"/>
+        <v>-10</v>
+      </c>
+      <c r="P13" s="19">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="18"/>
       <c r="B14" s="18">
         <v>40</v>
@@ -4919,7 +5005,7 @@
         <v>175</v>
       </c>
       <c r="F14" s="19">
-        <f>+E14-M14</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="G14" s="19" t="str">
@@ -4928,31 +5014,35 @@
       </c>
       <c r="H14" s="18"/>
       <c r="I14" s="19">
-        <f>IF(F13&lt;=0,0,IF(H14=0,0,MAX(0,MIN(F13,H14))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J14" s="19">
-        <f>IF(H14=0,0,H14-I14)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K14" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L14" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="M14" s="19">
         <f>SUM($H$5:H14)-SUM($K$5:K14)</f>
         <v>135</v>
       </c>
-      <c r="O14" s="19">
-        <f>MAX(F14,0)</f>
+      <c r="N14" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="19">
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="18"/>
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
@@ -4962,7 +5052,7 @@
         <v>175</v>
       </c>
       <c r="F15" s="19">
-        <f>+E15-M15</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="G15" s="19" t="str">
@@ -4973,31 +5063,35 @@
         <v>20</v>
       </c>
       <c r="I15" s="19">
-        <f>IF(F14&lt;=0,0,IF(H15=0,0,MAX(0,MIN(F14,H15))))</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="J15" s="19">
-        <f>IF(H15=0,0,H15-I15)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K15" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L15" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="M15" s="19">
         <f>SUM($H$5:H15)-SUM($K$5:K15)</f>
         <v>155</v>
       </c>
-      <c r="O15" s="19">
-        <f>MAX(F15,0)</f>
+      <c r="N15" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="19">
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
       <c r="B16" s="18">
         <v>30</v>
@@ -5009,7 +5103,7 @@
         <v>205</v>
       </c>
       <c r="F16" s="19">
-        <f>+E16-M16</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="G16" s="19" t="str">
@@ -5018,31 +5112,35 @@
       </c>
       <c r="H16" s="18"/>
       <c r="I16" s="19">
-        <f>IF(F15&lt;=0,0,IF(H16=0,0,MAX(0,MIN(F15,H16))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J16" s="19">
-        <f>IF(H16=0,0,H16-I16)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K16" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L16" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="M16" s="19">
         <f>SUM($H$5:H16)-SUM($K$5:K16)</f>
         <v>155</v>
       </c>
-      <c r="O16" s="19">
-        <f>MAX(F16,0)</f>
+      <c r="N16" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="19">
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="18"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
@@ -5052,7 +5150,7 @@
         <v>205</v>
       </c>
       <c r="F17" s="19">
-        <f>+E17-M17</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="G17" s="19" t="str">
@@ -5063,45 +5161,49 @@
         <v>10</v>
       </c>
       <c r="I17" s="19">
-        <f>IF(F16&lt;=0,0,IF(H17=0,0,MAX(0,MIN(F16,H17))))</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="J17" s="19">
-        <f>IF(H17=0,0,H17-I17)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K17" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L17" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="M17" s="19">
         <f>SUM($H$5:H17)-SUM($K$5:K17)</f>
         <v>165</v>
       </c>
-      <c r="O17" s="19">
-        <f>MAX(F17,0)</f>
+      <c r="N17" s="19">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="P17" s="19">
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="18"/>
       <c r="B18" s="18"/>
       <c r="C18" s="18">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E18" s="19">
         <f>$A$5+SUM($B$5:B18)-SUM($C$5:C18)</f>
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="F18" s="19">
-        <f>+E18-M18</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="G18" s="19" t="str">
@@ -5110,45 +5212,49 @@
       </c>
       <c r="H18" s="18"/>
       <c r="I18" s="19">
-        <f>IF(F17&lt;=0,0,IF(H18=0,0,MAX(0,MIN(F17,H18))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J18" s="19">
-        <f>IF(H18=0,0,H18-I18)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K18" s="19">
-        <f t="shared" si="0"/>
-        <v>30</v>
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
       <c r="L18" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>P1</v>
       </c>
       <c r="M18" s="19">
         <f>SUM($H$5:H18)-SUM($K$5:K18)</f>
-        <v>135</v>
-      </c>
-      <c r="O18" s="19">
-        <f>MAX(F18,0)</f>
+        <v>150</v>
+      </c>
+      <c r="N18" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P18" s="19">
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
       <c r="B19" s="18"/>
       <c r="C19" s="18">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E19" s="19">
         <f>$A$5+SUM($B$5:B19)-SUM($C$5:C19)</f>
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="F19" s="19">
-        <f>+E19-M19</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="G19" s="19" t="str">
@@ -5157,45 +5263,49 @@
       </c>
       <c r="H19" s="18"/>
       <c r="I19" s="19">
-        <f>IF(F18&lt;=0,0,IF(H19=0,0,MAX(0,MIN(F18,H19))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J19" s="19">
-        <f>IF(H19=0,0,H19-I19)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K19" s="19">
-        <f t="shared" si="0"/>
-        <v>40</v>
+        <f t="shared" si="3"/>
+        <v>30</v>
       </c>
       <c r="L19" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>P2</v>
       </c>
       <c r="M19" s="19">
         <f>SUM($H$5:H19)-SUM($K$5:K19)</f>
-        <v>95</v>
-      </c>
-      <c r="O19" s="19">
-        <f>MAX(F19,0)</f>
+        <v>120</v>
+      </c>
+      <c r="N19" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="19">
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="18"/>
       <c r="B20" s="18"/>
       <c r="C20" s="18">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E20" s="19">
         <f>$A$5+SUM($B$5:B20)-SUM($C$5:C20)</f>
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="F20" s="19">
-        <f>+E20-M20</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="G20" s="19" t="str">
@@ -5204,45 +5314,49 @@
       </c>
       <c r="H20" s="18"/>
       <c r="I20" s="19">
-        <f>IF(F19&lt;=0,0,IF(H20=0,0,MAX(0,MIN(F19,H20))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J20" s="19">
-        <f>IF(H20=0,0,H20-I20)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K20" s="19">
-        <f t="shared" si="0"/>
-        <v>60</v>
+        <f t="shared" si="3"/>
+        <v>40</v>
       </c>
       <c r="L20" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>P4</v>
       </c>
       <c r="M20" s="19">
         <f>SUM($H$5:H20)-SUM($K$5:K20)</f>
-        <v>35</v>
-      </c>
-      <c r="O20" s="19">
-        <f>MAX(F20,0)</f>
+        <v>80</v>
+      </c>
+      <c r="N20" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P20" s="19">
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="18"/>
       <c r="B21" s="18"/>
       <c r="C21" s="18">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E21" s="19">
         <f>$A$5+SUM($B$5:B21)-SUM($C$5:C21)</f>
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="F21" s="19">
-        <f>+E21-M21</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="G21" s="19" t="str">
@@ -5251,42 +5365,46 @@
       </c>
       <c r="H21" s="18"/>
       <c r="I21" s="19">
-        <f>IF(F20&lt;=0,0,IF(H21=0,0,MAX(0,MIN(F20,H21))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J21" s="19">
-        <f>IF(H21=0,0,H21-I21)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K21" s="19">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
       <c r="L21" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>P5</v>
       </c>
       <c r="M21" s="19">
         <f>SUM($H$5:H21)-SUM($K$5:K21)</f>
-        <v>30</v>
-      </c>
-      <c r="O21" s="19">
-        <f>MAX(F21,0)</f>
+        <v>65</v>
+      </c>
+      <c r="N21" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P21" s="19">
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="18"/>
       <c r="B22" s="18"/>
       <c r="C22" s="18">
         <v>20</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E22" s="19">
         <f>$A$5+SUM($B$5:B22)-SUM($C$5:C22)</f>
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="F22" s="19">
         <f>+E22-M22</f>
@@ -5298,45 +5416,49 @@
       </c>
       <c r="H22" s="18"/>
       <c r="I22" s="19">
-        <f>IF(F21&lt;=0,0,IF(H22=0,0,MAX(0,MIN(F21,H22))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J22" s="19">
-        <f>IF(H22=0,0,H22-I22)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K22" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="L22" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>P6</v>
       </c>
       <c r="M22" s="19">
         <f>SUM($H$5:H22)-SUM($K$5:K22)</f>
-        <v>10</v>
-      </c>
-      <c r="O22" s="19">
-        <f>MAX(F22,0)</f>
+        <v>45</v>
+      </c>
+      <c r="N22" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P22" s="19">
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="18"/>
       <c r="B23" s="18"/>
       <c r="C23" s="18">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E23" s="19">
         <f>$A$5+SUM($B$5:B23)-SUM($C$5:C23)</f>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="F23" s="19">
-        <f>+E23-M23</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="G23" s="19" t="str">
@@ -5345,38 +5467,48 @@
       </c>
       <c r="H23" s="18"/>
       <c r="I23" s="19">
-        <f>IF(F22&lt;=0,0,IF(H23=0,0,MAX(0,MIN(F22,H23))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J23" s="19">
-        <f>IF(H23=0,0,H23-I23)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K23" s="19">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="L23" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>P7</v>
       </c>
       <c r="M23" s="19">
         <f>SUM($H$5:H23)-SUM($K$5:K23)</f>
+        <v>40</v>
+      </c>
+      <c r="N23" s="19">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O23" s="19">
-        <f>MAX(F23,0)</f>
+      <c r="P23" s="19">
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="N5:N23">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="57" orientation="landscape" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:D28"/>
   <sheetViews>
@@ -5387,14 +5519,14 @@
       <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="44.28515625" style="2" customWidth="1"/>
     <col min="2" max="4" width="73" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -5408,7 +5540,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="108" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>57</v>
       </c>
@@ -5420,7 +5552,7 @@
       </c>
       <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="1:4" ht="238.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="238.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
@@ -5434,7 +5566,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="259.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="259.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>52</v>
       </c>
@@ -5446,7 +5578,7 @@
       </c>
       <c r="D4" s="5"/>
     </row>
-    <row r="5" spans="1:4" ht="54" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>0</v>
       </c>
@@ -5460,7 +5592,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="126" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>14</v>
       </c>
@@ -5474,7 +5606,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="54" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>1</v>
       </c>
@@ -5488,7 +5620,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="144" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="168.75" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
@@ -5502,7 +5634,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="72" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="75" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>15</v>
       </c>
@@ -5516,7 +5648,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="72" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="75" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>18</v>
       </c>
@@ -5530,7 +5662,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="126" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>31</v>
       </c>
@@ -5544,7 +5676,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="54" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>32</v>
       </c>
@@ -5558,7 +5690,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>33</v>
       </c>
@@ -5566,7 +5698,7 @@
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:4" ht="36" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>40</v>
       </c>
@@ -5578,7 +5710,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>54</v>
       </c>
@@ -5586,7 +5718,7 @@
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>3</v>
       </c>
@@ -5600,7 +5732,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -5608,7 +5740,7 @@
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>11</v>
       </c>
@@ -5616,7 +5748,7 @@
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>10</v>
       </c>
@@ -5624,7 +5756,7 @@
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>9</v>
       </c>
@@ -5632,7 +5764,7 @@
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>8</v>
       </c>
@@ -5640,7 +5772,7 @@
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>4</v>
       </c>
@@ -5648,7 +5780,7 @@
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>47</v>
       </c>
@@ -5656,7 +5788,7 @@
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>5</v>
       </c>
@@ -5670,7 +5802,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>6</v>
       </c>
@@ -5678,7 +5810,7 @@
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>7</v>
       </c>
@@ -5686,7 +5818,7 @@
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>20</v>
       </c>
@@ -5700,7 +5832,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>19</v>
       </c>
